--- a/financial_models/Opportunities/9982.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/9982.HK_Stock_Valuation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E390AF-77AF-44CD-AED6-620D8DA4EEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FFD5F6-0AFC-49F1-855C-F5DBF53051EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="349">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1173,18 +1173,6 @@
     <t>FY</t>
   </si>
   <si>
-    <t>家居護理</t>
-  </si>
-  <si>
-    <t>個人護理</t>
-  </si>
-  <si>
-    <t>寵物產品</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
     <t>Consumer Discretionary, 12.4y</t>
   </si>
   <si>
@@ -1222,6 +1210,12 @@
   <si>
     <t>1. 代建趋势(大中原中小房企多，代建需求多)
 2. 房地产行业最终复苏</t>
+  </si>
+  <si>
+    <t>Projects in Henan Province</t>
+  </si>
+  <si>
+    <t>outside Henan province</t>
   </si>
 </sst>
 </file>
@@ -3939,6 +3933,179 @@
     <xf numFmtId="4" fontId="5" fillId="13" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3961,182 +4128,9 @@
     <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4562,7 +4556,7 @@
   <dimension ref="A1:L966"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C22" sqref="C22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4606,33 +4600,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="396" t="s">
-        <v>344</v>
-      </c>
-      <c r="D3" s="397"/>
+      <c r="C3" s="401" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" s="402"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="408" t="s">
+      <c r="I3" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="409"/>
+      <c r="J3" s="412"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="398" t="s">
-        <v>345</v>
-      </c>
-      <c r="D4" s="399"/>
+      <c r="C4" s="403" t="s">
+        <v>341</v>
+      </c>
+      <c r="D4" s="404"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>0.47</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4643,10 +4637,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="400">
+      <c r="C5" s="405">
         <v>45058</v>
       </c>
-      <c r="D5" s="399"/>
+      <c r="D5" s="404"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -4654,10 +4648,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="392">
+      <c r="I5" s="413">
         <v>3625799936</v>
       </c>
-      <c r="J5" s="393"/>
+      <c r="J5" s="414"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4680,11 +4674,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="410">
+      <c r="I6" s="415">
         <f>I4*I5/1000000</f>
-        <v>1704.1259699199998</v>
-      </c>
-      <c r="J6" s="411"/>
+        <v>1649.7389708800001</v>
+      </c>
+      <c r="J6" s="416"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4693,11 +4687,11 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>0.29198773404262451</v>
+        <v>0.30060909147449416</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40*Exchange_Rate)/I4</f>
-        <v>4.2504711488985407E-3</v>
+        <v>4.3759724174660579E-3</v>
       </c>
       <c r="E7" s="153"/>
       <c r="F7" s="6"/>
@@ -4724,11 +4718,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>4.9677490412105874</v>
+        <v>4.8252758382012289</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.2012984133667732</v>
+        <v>0.20724203828579071</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4747,47 +4741,47 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.69221421933136917</v>
+        <v>0.67236177183882639</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>232.1331140665821</v>
+        <v>0.27424834245015423</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="312" t="s">
         <v>266</v>
       </c>
-      <c r="C11" s="422">
+      <c r="C11" s="425">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="423"/>
+      <c r="D11" s="426"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="420" t="s">
+      <c r="I11" s="423" t="s">
         <v>333</v>
       </c>
-      <c r="J11" s="421"/>
+      <c r="J11" s="424"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="313" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="424">
+      <c r="C12" s="379">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="425"/>
+      <c r="D12" s="380"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="133"/>
       <c r="I12" s="135">
-        <v>1.1303586562474568</v>
+        <v>1.1265936692555745</v>
       </c>
       <c r="J12" s="136" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4804,22 +4798,22 @@
         <v>212</v>
       </c>
       <c r="D14" s="184">
-        <f>MIN('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>0.4140772753469365</v>
+        <f ca="1">MIN('FCFF Model'!C30,'FCFF Model'!E30)</f>
+        <v>0.30720151596935769</v>
       </c>
       <c r="E14" s="127" t="s">
         <v>227</v>
       </c>
       <c r="F14" s="184">
-        <f>MAX('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>0.45144193441210811</v>
+        <f ca="1">MAX('FCFF Model'!C30,'FCFF Model'!E30)</f>
+        <v>0.37</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
-        <f>IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
-        <v>0.4312357876611842</v>
+        <f ca="1">IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
+        <v>0.33603969055771488</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
@@ -4853,82 +4847,82 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>0.47</v>
-      </c>
-      <c r="C16" s="431">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="C16" s="389">
         <v>0.1</v>
       </c>
-      <c r="D16" s="159" t="str">
-        <f>IF(B17='FCFF Model'!G29,"Net Asset", H14/B16-1-C16)</f>
-        <v>Net Asset</v>
-      </c>
-      <c r="E16" s="428">
+      <c r="D16" s="159">
+        <f ca="1">IF(B17='FCFF Model'!G29,"Net Asset", H14/B16-1-C16)</f>
+        <v>-0.36145122954348374</v>
+      </c>
+      <c r="E16" s="384">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
-        <v>0.24867890437444048</v>
+        <v>3.0418029069900512E-2</v>
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>0.52910405186051168</v>
-      </c>
-      <c r="G16" s="415" t="s">
+        <v>6.6852811142638482E-2</v>
+      </c>
+      <c r="G16" s="392" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="412">
+      <c r="H16" s="417">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>0.45144193441210811</v>
-      </c>
-      <c r="I16" s="415" t="s">
+        <v>0.29118441736428913</v>
+      </c>
+      <c r="I16" s="392" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>1.8558065587891859E-2</v>
+        <v>0.16381558263571089</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="289">
-        <f>MAX(H14/(1+C16),'FCFF Model'!G29)</f>
-        <v>0.39937937566718557</v>
-      </c>
-      <c r="C17" s="432"/>
-      <c r="D17" s="288" t="str">
-        <f>IF(B17='FCFF Model'!G29,"Net Asset",H14/B17-1-C16)</f>
-        <v>Net Asset</v>
-      </c>
-      <c r="E17" s="429"/>
+        <f ca="1">MAX(H14/(1+C16),'FCFF Model'!G29)</f>
+        <v>0.30549062777974079</v>
+      </c>
+      <c r="C17" s="390"/>
+      <c r="D17" s="288">
+        <f ca="1">IF(B17='FCFF Model'!G29,"Net Asset",H14/B17-1-C16)</f>
+        <v>8.3266726846886741E-17</v>
+      </c>
+      <c r="E17" s="385"/>
       <c r="F17" s="162">
-        <f>E16/B17</f>
-        <v>0.62266336101860165</v>
-      </c>
-      <c r="G17" s="416"/>
-      <c r="H17" s="413"/>
-      <c r="I17" s="416"/>
+        <f ca="1">E16/B17</f>
+        <v>9.9571071266487288E-2</v>
+      </c>
+      <c r="G17" s="393"/>
+      <c r="H17" s="418"/>
+      <c r="I17" s="393"/>
       <c r="J17" s="205">
-        <f>B17-$H$16</f>
-        <v>-5.2062558744922549E-2</v>
+        <f ca="1">B17-$H$16</f>
+        <v>1.4306210415451659E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="355">
         <f>C35</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="433"/>
-      <c r="D18" s="160" t="e">
-        <f>IF(B17='FCFF Model'!G29,"NA: "&amp;ROUND('FCFF Model'!G29/B18-1,2)*100&amp;"%", H14/B18-1-C16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="430"/>
-      <c r="F18" s="163" t="e">
+        <v>0.43</v>
+      </c>
+      <c r="C18" s="391"/>
+      <c r="D18" s="160">
+        <f ca="1">IF(B17='FCFF Model'!G29,"NA: "&amp;ROUND('FCFF Model'!G29/B18-1,2)*100&amp;"%", H14/B18-1-C16)</f>
+        <v>-0.31851234754019797</v>
+      </c>
+      <c r="E18" s="386"/>
+      <c r="F18" s="163">
         <f>E16/B18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="417"/>
-      <c r="H18" s="414"/>
-      <c r="I18" s="417"/>
+        <v>7.0739602488140721E-2</v>
+      </c>
+      <c r="G18" s="394"/>
+      <c r="H18" s="419"/>
+      <c r="I18" s="394"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>-0.45144193441210811</v>
+        <v>0.13881558263571087</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -4958,52 +4952,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="403" t="s">
-        <v>346</v>
-      </c>
-      <c r="D21" s="404"/>
-      <c r="E21" s="404"/>
-      <c r="F21" s="404"/>
-      <c r="G21" s="404"/>
-      <c r="H21" s="404"/>
-      <c r="I21" s="404"/>
-      <c r="J21" s="405"/>
+      <c r="C21" s="408" t="s">
+        <v>342</v>
+      </c>
+      <c r="D21" s="409"/>
+      <c r="E21" s="409"/>
+      <c r="F21" s="409"/>
+      <c r="G21" s="409"/>
+      <c r="H21" s="409"/>
+      <c r="I21" s="409"/>
+      <c r="J21" s="410"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="419" t="s">
-        <v>347</v>
-      </c>
-      <c r="D22" s="384"/>
-      <c r="E22" s="384"/>
-      <c r="F22" s="384"/>
-      <c r="G22" s="419" t="s">
-        <v>348</v>
-      </c>
-      <c r="H22" s="419"/>
-      <c r="I22" s="384"/>
-      <c r="J22" s="384"/>
+      <c r="C22" s="421" t="s">
+        <v>343</v>
+      </c>
+      <c r="D22" s="422"/>
+      <c r="E22" s="422"/>
+      <c r="F22" s="422"/>
+      <c r="G22" s="421" t="s">
+        <v>344</v>
+      </c>
+      <c r="H22" s="421"/>
+      <c r="I22" s="422"/>
+      <c r="J22" s="422"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="406" t="s">
-        <v>350</v>
-      </c>
-      <c r="D23" s="407"/>
-      <c r="E23" s="407"/>
-      <c r="F23" s="407"/>
-      <c r="G23" s="406" t="s">
-        <v>349</v>
-      </c>
-      <c r="H23" s="406"/>
-      <c r="I23" s="407"/>
-      <c r="J23" s="407"/>
+      <c r="C23" s="387" t="s">
+        <v>346</v>
+      </c>
+      <c r="D23" s="388"/>
+      <c r="E23" s="388"/>
+      <c r="F23" s="388"/>
+      <c r="G23" s="387" t="s">
+        <v>345</v>
+      </c>
+      <c r="H23" s="387"/>
+      <c r="I23" s="388"/>
+      <c r="J23" s="388"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -5039,207 +5033,207 @@
         <v>307</v>
       </c>
       <c r="J25" s="354">
-        <f>IF(D17="Asset Play", 'FCFF Model'!G19, H14/(H25+C16+1))</f>
-        <v>0.34498863012894737</v>
+        <f ca="1">IF(D17="Asset Play", 'FCFF Model'!G19, H14/(H25+C16+1))</f>
+        <v>0.26883175244617191</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="401"/>
-      <c r="D26" s="402"/>
-      <c r="E26" s="437" t="str">
+      <c r="C26" s="406"/>
+      <c r="D26" s="407"/>
+      <c r="E26" s="398" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F26" s="438"/>
-      <c r="G26" s="438"/>
-      <c r="H26" s="439"/>
-      <c r="I26" s="418" t="s">
+      <c r="F26" s="399"/>
+      <c r="G26" s="399"/>
+      <c r="H26" s="400"/>
+      <c r="I26" s="420" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="418"/>
+      <c r="J26" s="420"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="427">
+      <c r="C27" s="383">
         <f>C31/D25</f>
         <v>0</v>
       </c>
       <c r="D27" s="382"/>
-      <c r="E27" s="426">
+      <c r="E27" s="381">
         <f>E31/D25</f>
         <v>0</v>
       </c>
       <c r="F27" s="382"/>
-      <c r="G27" s="435">
+      <c r="G27" s="396">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="436"/>
-      <c r="I27" s="434">
+      <c r="H27" s="397"/>
+      <c r="I27" s="395">
         <f>C27+E27+G27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="434"/>
+      <c r="J27" s="395"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="383"/>
-      <c r="D28" s="384"/>
-      <c r="E28" s="383"/>
-      <c r="F28" s="384"/>
-      <c r="G28" s="392"/>
-      <c r="H28" s="393"/>
-      <c r="I28" s="372">
+      <c r="C28" s="372"/>
+      <c r="D28" s="422"/>
+      <c r="E28" s="372"/>
+      <c r="F28" s="422"/>
+      <c r="G28" s="413"/>
+      <c r="H28" s="414"/>
+      <c r="I28" s="437">
         <f>C28+E28+G28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="372"/>
+      <c r="J28" s="437"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="385">
-        <v>0.4</v>
-      </c>
-      <c r="D29" s="384"/>
-      <c r="E29" s="385"/>
-      <c r="F29" s="384"/>
-      <c r="G29" s="386"/>
-      <c r="H29" s="387"/>
-      <c r="I29" s="394"/>
-      <c r="J29" s="394"/>
+      <c r="C29" s="447">
+        <v>0.43</v>
+      </c>
+      <c r="D29" s="422"/>
+      <c r="E29" s="447"/>
+      <c r="F29" s="422"/>
+      <c r="G29" s="427"/>
+      <c r="H29" s="428"/>
+      <c r="I29" s="433"/>
+      <c r="J29" s="433"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="370">
+      <c r="C30" s="435">
         <f>C29*$I$5/1000000</f>
-        <v>1450.3199744000001</v>
-      </c>
-      <c r="D30" s="377"/>
-      <c r="E30" s="370">
+        <v>1559.09397248</v>
+      </c>
+      <c r="D30" s="442"/>
+      <c r="E30" s="435">
         <f>E29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F30" s="377"/>
-      <c r="G30" s="388">
+      <c r="F30" s="442"/>
+      <c r="G30" s="429">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="389"/>
-      <c r="I30" s="395"/>
-      <c r="J30" s="395"/>
+      <c r="H30" s="430"/>
+      <c r="I30" s="434"/>
+      <c r="J30" s="434"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="378">
+      <c r="C31" s="443">
         <f>C28*C29</f>
         <v>0</v>
       </c>
-      <c r="D31" s="379"/>
-      <c r="E31" s="371">
+      <c r="D31" s="444"/>
+      <c r="E31" s="436">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="380"/>
-      <c r="G31" s="390">
+      <c r="F31" s="445"/>
+      <c r="G31" s="431">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="391"/>
-      <c r="I31" s="371">
+      <c r="H31" s="432"/>
+      <c r="I31" s="436">
         <f>C31+E31+G31</f>
         <v>0</v>
       </c>
-      <c r="J31" s="371"/>
+      <c r="J31" s="436"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="373"/>
-      <c r="D32" s="374"/>
-      <c r="E32" s="381" t="str">
+      <c r="C32" s="438"/>
+      <c r="D32" s="439"/>
+      <c r="E32" s="446" t="str">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>-</v>
       </c>
       <c r="F32" s="382"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="381" t="str">
+      <c r="I32" s="446" t="str">
         <f>IF(I31=0,"",I31/I28)</f>
         <v/>
       </c>
-      <c r="J32" s="381"/>
+      <c r="J32" s="446"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="375"/>
-      <c r="D33" s="376"/>
-      <c r="E33" s="370" t="str">
+      <c r="C33" s="440"/>
+      <c r="D33" s="441"/>
+      <c r="E33" s="435" t="str">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>-</v>
       </c>
-      <c r="F33" s="377"/>
+      <c r="F33" s="442"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="370" t="str">
+      <c r="I33" s="435" t="str">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v/>
       </c>
-      <c r="J33" s="370"/>
+      <c r="J33" s="435"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="146" t="s">
         <v>308</v>
       </c>
-      <c r="C35" s="440">
-        <f>E29</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="441"/>
-      <c r="G35" s="443" t="s">
+      <c r="C35" s="370">
+        <f>C29</f>
+        <v>0.43</v>
+      </c>
+      <c r="D35" s="371"/>
+      <c r="G35" s="374" t="s">
         <v>310</v>
       </c>
-      <c r="H35" s="444"/>
-      <c r="I35" s="440">
-        <f>F14</f>
-        <v>0.45144193441210811</v>
-      </c>
-      <c r="J35" s="441"/>
+      <c r="H35" s="375"/>
+      <c r="I35" s="370">
+        <f ca="1">F14</f>
+        <v>0.37</v>
+      </c>
+      <c r="J35" s="371"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="146" t="s">
         <v>309</v>
       </c>
-      <c r="C36" s="383">
+      <c r="C36" s="372">
         <f>E28</f>
         <v>0</v>
       </c>
-      <c r="D36" s="442"/>
-      <c r="G36" s="445" t="s">
+      <c r="D36" s="373"/>
+      <c r="G36" s="376" t="s">
         <v>320</v>
       </c>
-      <c r="H36" s="445"/>
-      <c r="I36" s="446">
+      <c r="H36" s="376"/>
+      <c r="I36" s="377">
         <f>IF(C26="",0,I35/C29-1)</f>
         <v>0</v>
       </c>
-      <c r="J36" s="447"/>
+      <c r="J36" s="378"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
@@ -5298,15 +5292,15 @@
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E42" s="358">
-        <f>IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
-        <v>0.5</v>
+        <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
+        <v>0</v>
       </c>
       <c r="F42" s="102" t="str">
-        <f>IF(F45&lt;D10,"Strongly Disagree",IF(F45&lt;10%,"Disagree",IF(F45&gt;=30%,"Strongly Agree",IF(F45&gt;=20%,"Agree","So-so"))))</f>
-        <v>So-so</v>
+        <f ca="1">IF(F45&lt;D10,"Strongly Disagree",IF(F45&lt;10%,"Disagree",IF(F45&gt;=30%,"Strongly Agree",IF(F45&gt;=20%,"Agree","So-so"))))</f>
+        <v>Strongly Disagree</v>
       </c>
       <c r="G42" s="74" t="s">
         <v>325</v>
@@ -5334,8 +5328,8 @@
         <v>326</v>
       </c>
       <c r="F45" s="365">
-        <f>I35/C29-1</f>
-        <v>0.12860483603027029</v>
+        <f ca="1">I35/C29-1</f>
+        <v>-0.13953488372093026</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
@@ -5343,8 +5337,8 @@
         <v>327</v>
       </c>
       <c r="F46" s="365">
-        <f>D14/C29-1</f>
-        <v>3.5193188367341088E-2</v>
+        <f ca="1">D14/C29-1</f>
+        <v>-0.28557786983870304</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
@@ -5353,8 +5347,8 @@
         <v>329</v>
       </c>
       <c r="F48" s="214">
-        <f>IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
-        <v>0.54784353741496594</v>
+        <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
+        <v>0</v>
       </c>
       <c r="G48" s="74"/>
     </row>
@@ -5363,35 +5357,35 @@
         <v>328</v>
       </c>
       <c r="D49" s="367">
-        <f>IF(F42="Strongly Agree",2,IF(F42="Agree",3,4))</f>
+        <f ca="1">IF(F42="Strongly Agree",2,IF(F42="Agree",3,4))</f>
         <v>4</v>
       </c>
       <c r="E49" s="363">
-        <f>F45/ABS(F46)</f>
-        <v>3.6542536211244285</v>
+        <f ca="1">F45/ABS(F46)</f>
+        <v>-0.48860538038098267</v>
       </c>
       <c r="F49" s="360">
-        <f>IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>100</v>
+        <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
+        <v>-0.48860538038098267</v>
       </c>
       <c r="G49" s="74"/>
     </row>
     <row r="50" spans="2:8" ht="15.75" customHeight="1">
       <c r="B50" s="368" t="str">
-        <f>IF(D49=2,"⇒ 1/2 Kelly %",IF(D49=3, "⇒ 1/3 Kelly %", "⇒ 1/4 Kelly %"))</f>
+        <f ca="1">IF(D49=2,"⇒ 1/2 Kelly %",IF(D49=3, "⇒ 1/3 Kelly %", "⇒ 1/4 Kelly %"))</f>
         <v>⇒ 1/4 Kelly %</v>
       </c>
       <c r="C50" s="85" t="str">
-        <f>" [W – (1 – W)/R] /"&amp;D49</f>
+        <f ca="1">" [W – (1 – W)/R] /"&amp;D49</f>
         <v xml:space="preserve"> [W – (1 – W)/R] /4</v>
       </c>
       <c r="E50" s="107">
-        <f>MAX(F48-ABS((1-F48)/F49),0)/D49</f>
-        <v>0.13583049319727891</v>
+        <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/D49</f>
+        <v>0</v>
       </c>
       <c r="F50" s="359">
-        <f>MIN(E50,H50)</f>
-        <v>0.13583049319727891</v>
+        <f ca="1">MIN(E50,H50)</f>
+        <v>0</v>
       </c>
       <c r="G50" s="362" t="s">
         <v>331</v>
@@ -6318,22 +6312,28 @@
     <row r="966" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6350,28 +6350,22 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -6464,8 +6458,8 @@
   </sheetPr>
   <dimension ref="A1:N941"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -6540,7 +6534,7 @@
       </c>
       <c r="F4" s="178">
         <f>AVERAGE(C16:INDEX(C16:M16,1,E4))</f>
-        <v>605679</v>
+        <v>405112</v>
       </c>
       <c r="G4" s="6"/>
       <c r="I4" s="6"/>
@@ -6758,10 +6752,12 @@
         <v>49</v>
       </c>
       <c r="C11" s="35">
-        <v>0</v>
+        <f>123069+18827+58671</f>
+        <v>200567</v>
       </c>
       <c r="D11" s="35">
-        <v>19711</v>
+        <f>196859+18177+72330</f>
+        <v>287366</v>
       </c>
       <c r="E11" s="35">
         <v>47426</v>
@@ -6785,11 +6781,11 @@
       </c>
       <c r="C12" s="14">
         <f t="shared" ref="C12:M12" si="3">IF(C7="","",C10-C13)</f>
-        <v>0</v>
+        <v>0.33114405485413889</v>
       </c>
       <c r="D12" s="14">
         <f t="shared" si="3"/>
-        <v>1.514542636707239E-2</v>
+        <v>0.22080465696312346</v>
       </c>
       <c r="E12" s="14">
         <f t="shared" si="3"/>
@@ -6836,11 +6832,11 @@
       </c>
       <c r="C13" s="14">
         <f t="shared" ref="C13:M13" si="4">IF(C14="","",C14/C7)</f>
-        <v>1</v>
+        <v>0.66885594514586111</v>
       </c>
       <c r="D13" s="14">
         <f t="shared" si="4"/>
-        <v>0.98485457363292761</v>
+        <v>0.77919534303687654</v>
       </c>
       <c r="E13" s="14">
         <f t="shared" si="4"/>
@@ -6887,11 +6883,11 @@
       </c>
       <c r="C14" s="27">
         <f t="shared" ref="C14:M14" si="5">IF(C7="","",C7-C9-C11)</f>
-        <v>605679</v>
+        <v>405112</v>
       </c>
       <c r="D14" s="27">
         <f t="shared" si="5"/>
-        <v>1281738</v>
+        <v>1014083</v>
       </c>
       <c r="E14" s="27">
         <f t="shared" si="5"/>
@@ -6938,11 +6934,11 @@
       </c>
       <c r="C15" s="14">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
-        <v>-0.52745490888153435</v>
+        <v>-0.60051396187491557</v>
       </c>
       <c r="D15" s="14">
         <f t="shared" ref="D15:M15" si="6">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
-        <v>0.16030510855868252</v>
+        <v>-8.1992040961168008E-2</v>
       </c>
       <c r="E15" s="14">
         <f t="shared" si="6"/>
@@ -6988,47 +6984,47 @@
         <v>54</v>
       </c>
       <c r="C16" s="143">
-        <f>IF(C14="","",C14*(1-Operation!$D$18))</f>
-        <v>605679</v>
+        <f>IF(C14="","",C14*(1-Operation!$D$16))</f>
+        <v>405112</v>
       </c>
       <c r="D16" s="143">
-        <f>IF(D14="","",D14*(1-Operation!$D$18))</f>
-        <v>1281738</v>
+        <f>IF(D14="","",D14*(1-Operation!$D$16))</f>
+        <v>1014083</v>
       </c>
       <c r="E16" s="143">
-        <f>IF(E14="","",E14*(1-Operation!$D$18))</f>
+        <f>IF(E14="","",E14*(1-Operation!$D$16))</f>
         <v>1104656</v>
       </c>
       <c r="F16" s="143">
-        <f>IF(F14="","",F14*(1-Operation!$D$18))</f>
+        <f>IF(F14="","",F14*(1-Operation!$D$16))</f>
         <v>1002979</v>
       </c>
       <c r="G16" s="143" t="str">
-        <f>IF(G14="","",G14*(1-Operation!$D$18))</f>
+        <f>IF(G14="","",G14*(1-Operation!$D$16))</f>
         <v/>
       </c>
       <c r="H16" s="143" t="str">
-        <f>IF(H14="","",H14*(1-Operation!$D$18))</f>
+        <f>IF(H14="","",H14*(1-Operation!$D$16))</f>
         <v/>
       </c>
       <c r="I16" s="143" t="str">
-        <f>IF(I14="","",I14*(1-Operation!$D$18))</f>
+        <f>IF(I14="","",I14*(1-Operation!$D$16))</f>
         <v/>
       </c>
       <c r="J16" s="143" t="str">
-        <f>IF(J14="","",J14*(1-Operation!$D$18))</f>
+        <f>IF(J14="","",J14*(1-Operation!$D$16))</f>
         <v/>
       </c>
       <c r="K16" s="143" t="str">
-        <f>IF(K14="","",K14*(1-Operation!$D$18))</f>
+        <f>IF(K14="","",K14*(1-Operation!$D$16))</f>
         <v/>
       </c>
       <c r="L16" s="143" t="str">
-        <f>IF(L14="","",L14*(1-Operation!$D$18))</f>
+        <f>IF(L14="","",L14*(1-Operation!$D$16))</f>
         <v/>
       </c>
       <c r="M16" s="243" t="str">
-        <f>IF(M14="","",M14*(1-Operation!$D$18))</f>
+        <f>IF(M14="","",M14*(1-Operation!$D$16))</f>
         <v/>
       </c>
       <c r="N16" s="6"/>
@@ -7040,11 +7036,11 @@
       </c>
       <c r="C17" s="129">
         <f t="shared" ref="C17:M17" si="7">IF(C7="","",C16/C7)</f>
-        <v>1</v>
+        <v>0.66885594514586111</v>
       </c>
       <c r="D17" s="129">
         <f t="shared" si="7"/>
-        <v>0.98485457363292761</v>
+        <v>0.77919534303687654</v>
       </c>
       <c r="E17" s="129">
         <f t="shared" si="7"/>
@@ -7658,11 +7654,11 @@
       </c>
       <c r="C35" s="239">
         <f t="shared" ref="C35:M35" si="19">IF(C34="","",C34/C16)</f>
-        <v>-0.24337739462652658</v>
+        <v>-0.36387116896068245</v>
       </c>
       <c r="D35" s="239">
         <f t="shared" si="19"/>
-        <v>2.0096413385574899E-2</v>
+        <v>2.5400619771754382E-2</v>
       </c>
       <c r="E35" s="239">
         <f t="shared" si="19"/>
@@ -8000,11 +7996,11 @@
       </c>
       <c r="C44" s="50">
         <f t="shared" ref="C44:M44" si="24">IF(C14="","",IF(C27&lt;=0,"-",C14/C27))</f>
-        <v>195.50645577792125</v>
+        <v>130.76565526145902</v>
       </c>
       <c r="D44" s="50">
         <f t="shared" si="24"/>
-        <v>211.05516219331466</v>
+        <v>166.98221636752839</v>
       </c>
       <c r="E44" s="50">
         <f t="shared" si="24"/>
@@ -8051,11 +8047,11 @@
       </c>
       <c r="C45" s="14">
         <f t="shared" ref="C45:M45" si="25">IF(C16="","",IF(C18&lt;=0,"-",C18/C16))</f>
-        <v>3.4836935076170713E-4</v>
+        <v>5.2084361855486878E-4</v>
       </c>
       <c r="D45" s="14">
         <f t="shared" si="25"/>
-        <v>3.2221873737066391E-4</v>
+        <v>4.0726449412917877E-4</v>
       </c>
       <c r="E45" s="14">
         <f t="shared" si="25"/>
@@ -9637,7 +9633,7 @@
   <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -9709,7 +9705,7 @@
       </c>
       <c r="I4" s="91">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>0.67898056248250338</v>
+        <v>0.67671902100506287</v>
       </c>
       <c r="K4" s="74"/>
     </row>
@@ -9728,11 +9724,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="59">
         <f>E46-I46-E50+MIN('FCFF Model'!D4,0)</f>
-        <v>1393312.4147338015</v>
+        <v>882383.10000000009</v>
       </c>
       <c r="E6" s="14">
         <f>1-D6/D3</f>
-        <v>0.36025987243246405</v>
+        <v>0.59485333584335609</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9752,7 +9748,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>0.43437111165843412</v>
+        <v>0.27417045393155104</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -9830,11 +9826,11 @@
         <v>1564617</v>
       </c>
       <c r="D11" s="65">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E11" s="27">
         <f t="shared" ref="E11:E21" si="0">C11*D11</f>
-        <v>1564617</v>
+        <v>938770.2</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -10107,11 +10103,11 @@
       </c>
       <c r="D24" s="68">
         <f>IF(E24=0,0,E24/C24)</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E24" s="27">
         <f>SUM(E11:E14)</f>
-        <v>1564617</v>
+        <v>938770.2</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -10120,7 +10116,7 @@
       </c>
       <c r="I24" s="69">
         <f>E24/($I$26-I15)</f>
-        <v>635.50649878147851</v>
+        <v>381.30389926888705</v>
       </c>
       <c r="J24" s="13" t="str">
         <f>IF(I24&lt;1,"Liquidity Problem!","")</f>
@@ -10137,11 +10133,11 @@
       </c>
       <c r="D25" s="68">
         <f>IF(E25=0,0,E25/C25)</f>
-        <v>0.75415053610918503</v>
+        <v>0.51805017870306169</v>
       </c>
       <c r="E25" s="27">
         <f>E24+SUM(E15:E17)</f>
-        <v>1999076.6</v>
+        <v>1373229.8</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -10150,7 +10146,7 @@
       </c>
       <c r="I25" s="69">
         <f>E25/$I$26</f>
-        <v>3.8827199362939799</v>
+        <v>2.6671647907703964</v>
       </c>
       <c r="J25" s="13" t="str">
         <f>IF(OR(I25&lt;0.75,C26&lt;I26),"Liquidity Problem!","")</f>
@@ -10167,11 +10163,11 @@
       </c>
       <c r="D26" s="14">
         <f t="shared" ref="D26" si="2">E26/C26</f>
-        <v>0.75415053610918503</v>
+        <v>0.51805017870306169</v>
       </c>
       <c r="E26" s="27">
         <f>SUM(E11:E22)</f>
-        <v>1999076.6</v>
+        <v>1373229.8</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>58</v>
@@ -10519,11 +10515,11 @@
       </c>
       <c r="D44" s="68">
         <f>IF(E44=0,0,E44/C44)</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E44" s="27">
         <f>E24+SUM(E28:E29)</f>
-        <v>1564617</v>
+        <v>938770.2</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -10532,7 +10528,7 @@
       </c>
       <c r="I44" s="69">
         <f>E44/(I46-I15-I32)</f>
-        <v>505.04099418979985</v>
+        <v>303.02459651387989</v>
       </c>
       <c r="J44" s="13" t="str">
         <f>IF(I44&lt;1,"Liquidity Problem!","")</f>
@@ -10549,11 +10545,11 @@
       </c>
       <c r="D45" s="68">
         <f>IF(E45=0,0,E45/C45)</f>
-        <v>0.75318497003261986</v>
+        <v>0.51771743751622523</v>
       </c>
       <c r="E45" s="27">
         <f>E44+(E25-E24)+SUM(E30:E33)</f>
-        <v>2001882.8</v>
+        <v>1376036</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -10562,7 +10558,7 @@
       </c>
       <c r="I45" s="69">
         <f>E45/$I$46</f>
-        <v>3.8833732621275225</v>
+        <v>2.6693178092768006</v>
       </c>
       <c r="J45" s="13" t="str">
         <f>IF(OR(I45&lt;0.5,C46&lt;I46),"Liquidity Problem!","")</f>
@@ -10579,11 +10575,11 @@
       </c>
       <c r="D46" s="14">
         <f>E46/C46</f>
-        <v>0.75135659432784008</v>
+        <v>0.51899659022898637</v>
       </c>
       <c r="E46" s="27">
         <f>E26+E42</f>
-        <v>2023730.9000000001</v>
+        <v>1397884.1</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -10665,7 +10661,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>3098</v>
       </c>
-      <c r="E53" s="379"/>
+      <c r="E53" s="444"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10684,7 +10680,7 @@
       <c r="D54" s="456">
         <v>0</v>
       </c>
-      <c r="E54" s="384"/>
+      <c r="E54" s="422"/>
       <c r="F54" s="6" t="s">
         <v>132</v>
       </c>
@@ -10698,7 +10694,7 @@
       <c r="D55" s="456">
         <v>0</v>
       </c>
-      <c r="E55" s="384"/>
+      <c r="E55" s="422"/>
       <c r="F55" s="5" t="s">
         <v>133</v>
       </c>
@@ -10746,11 +10742,11 @@
       </c>
       <c r="D59" s="214">
         <f>IF(E59=0,0,E59/C59)</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E59" s="215">
         <f>E11+E12+E28</f>
-        <v>1564617</v>
+        <v>938770.2</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -10762,7 +10758,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="454">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>137712.96991999983</v>
+        <v>83325.970880000154</v>
       </c>
       <c r="E60" s="455"/>
       <c r="F60" s="6"/>
@@ -10781,11 +10777,11 @@
       <c r="B63" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D63" s="446">
+      <c r="D63" s="377">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>0.94321249374668759</v>
       </c>
-      <c r="E63" s="447"/>
+      <c r="E63" s="378"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1">
       <c r="B64" s="3" t="s">
@@ -10844,10 +10840,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M903"/>
+  <dimension ref="A1:M901"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10919,12 +10915,12 @@
         <v>242</v>
       </c>
       <c r="G3" s="277" t="str">
-        <f>IF(G9="","",EOMONTH(EDATE(E3,12),0))</f>
+        <f>IF(G7="","",EOMONTH(EDATE(E3,12),0))</f>
         <v/>
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="277" t="str">
-        <f>IF(I16="","",EOMONTH(EDATE(G3,12),0))</f>
+        <f>IF(I14="","",EOMONTH(EDATE(G3,12),0))</f>
         <v/>
       </c>
       <c r="J3" s="296"/>
@@ -10934,22 +10930,22 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="B4" s="292" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="C4" s="293">
-        <v>1296901</v>
+        <v>554225</v>
       </c>
       <c r="D4" s="260">
-        <f>C4/$C$8</f>
-        <v>0.89925557865307992</v>
+        <f>C4/$C$6</f>
+        <v>0.91504740960145559</v>
       </c>
       <c r="E4" s="293">
-        <f>C4*0.8</f>
-        <v>1037520.8</v>
+        <f>C4*0.5</f>
+        <v>277112.5</v>
       </c>
       <c r="F4" s="260">
-        <f>E4/E$8</f>
-        <v>0.89135506019640331</v>
+        <f>E4/E$6</f>
+        <v>0.89976002070231353</v>
       </c>
       <c r="G4" s="222"/>
       <c r="H4" s="260"/>
@@ -10961,22 +10957,22 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="B5" s="292" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C5" s="293">
-        <v>64283</v>
+        <v>51454</v>
       </c>
       <c r="D5" s="260">
-        <f t="shared" ref="D5:D7" si="0">C5/$C$8</f>
-        <v>4.4573060212426345E-2</v>
+        <f>C5/$C$6</f>
+        <v>8.4952590398544442E-2</v>
       </c>
       <c r="E5" s="293">
         <f>C5*0.6</f>
-        <v>38569.799999999996</v>
+        <v>30872.399999999998</v>
       </c>
       <c r="F5" s="260">
-        <f t="shared" ref="F5:F7" si="1">E5/E$8</f>
-        <v>3.3136093657845929E-2</v>
+        <f>E5/E$6</f>
+        <v>0.10023997929768633</v>
       </c>
       <c r="G5" s="222"/>
       <c r="H5" s="260"/>
@@ -10987,386 +10983,335 @@
       <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B6" s="292" t="s">
-        <v>338</v>
-      </c>
-      <c r="C6" s="293">
-        <v>76943</v>
-      </c>
-      <c r="D6" s="260">
-        <f t="shared" si="0"/>
-        <v>5.3351352175920852E-2</v>
-      </c>
-      <c r="E6" s="293">
-        <f>C6*1.1</f>
-        <v>84637.3</v>
-      </c>
-      <c r="F6" s="260">
-        <f t="shared" si="1"/>
-        <v>7.2713612716353293E-2</v>
-      </c>
-      <c r="G6" s="222"/>
-      <c r="H6" s="260"/>
-      <c r="I6" s="222"/>
-      <c r="J6" s="286"/>
+      <c r="B6" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="180">
+        <f>SUM(C4:C5)</f>
+        <v>605679</v>
+      </c>
+      <c r="D6" s="259"/>
+      <c r="E6" s="337">
+        <f>SUM(E4:E5)</f>
+        <v>307984.90000000002</v>
+      </c>
+      <c r="F6" s="259"/>
+      <c r="G6" s="337"/>
+      <c r="H6" s="259"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="287"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="74"/>
+      <c r="L6" s="74" t="s">
+        <v>261</v>
+      </c>
       <c r="M6" s="57"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B7" s="292" t="s">
-        <v>339</v>
-      </c>
-      <c r="C7" s="293">
-        <v>4067</v>
-      </c>
-      <c r="D7" s="260">
-        <f t="shared" si="0"/>
-        <v>2.820008958572841E-3</v>
-      </c>
-      <c r="E7" s="293">
-        <f>C7*0.8</f>
-        <v>3253.6000000000004</v>
-      </c>
-      <c r="F7" s="260">
-        <f t="shared" si="1"/>
-        <v>2.7952334293972884E-3</v>
-      </c>
-      <c r="G7" s="222"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="222"/>
-      <c r="J7" s="286"/>
+      <c r="B7" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="187"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="18">
+        <f>E6/C6-1</f>
+        <v>-0.49150474096014551</v>
+      </c>
+      <c r="F7" s="261"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="261"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="327"/>
       <c r="K7" s="6"/>
       <c r="L7" s="74"/>
       <c r="M7" s="57"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B8" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="180">
-        <f>SUM(C4:C7)</f>
-        <v>1442194</v>
-      </c>
-      <c r="D8" s="259"/>
-      <c r="E8" s="337">
-        <f>SUM(E4:E7)</f>
-        <v>1163981.5000000002</v>
-      </c>
-      <c r="F8" s="259"/>
-      <c r="G8" s="337"/>
-      <c r="H8" s="259"/>
-      <c r="I8" s="228"/>
-      <c r="J8" s="287"/>
+      <c r="B8" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="181">
+        <f>Data!C9</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="262"/>
+      <c r="E8" s="227">
+        <f>E6*(1-E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="262"/>
+      <c r="G8" s="281" t="str">
+        <f>IF(G6="","",G6*(1-G9))</f>
+        <v/>
+      </c>
+      <c r="H8" s="262"/>
+      <c r="I8" s="281" t="str">
+        <f>IF(I6="","",I6*(1-I9))</f>
+        <v/>
+      </c>
+      <c r="J8" s="328"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="M8" s="57"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="B9" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="187"/>
-      <c r="D9" s="261"/>
-      <c r="E9" s="18">
-        <f>E8/C8-1</f>
-        <v>-0.19290920638970888</v>
-      </c>
-      <c r="F9" s="261"/>
+        <v>48</v>
+      </c>
+      <c r="C9" s="186">
+        <f>(C6-C8)/C6</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="186"/>
+      <c r="E9" s="73">
+        <f>C9</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="186"/>
       <c r="G9" s="73"/>
-      <c r="H9" s="261"/>
+      <c r="H9" s="186"/>
       <c r="I9" s="73"/>
-      <c r="J9" s="327"/>
+      <c r="J9" s="329"/>
       <c r="K9" s="6"/>
       <c r="L9" s="74"/>
-      <c r="M9" s="57"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B10" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="181">
-        <v>842386</v>
-      </c>
-      <c r="D10" s="262"/>
-      <c r="E10" s="227">
-        <f>E8*(1-E11)</f>
-        <v>679881.98526619875</v>
-      </c>
-      <c r="F10" s="262"/>
-      <c r="G10" s="281" t="str">
-        <f>IF(G8="","",G8*(1-G11))</f>
-        <v/>
-      </c>
-      <c r="H10" s="262"/>
-      <c r="I10" s="281" t="str">
-        <f>IF(I8="","",I8*(1-I11))</f>
-        <v/>
-      </c>
-      <c r="J10" s="328"/>
+      <c r="B10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="27">
+        <f>C6-C8</f>
+        <v>605679</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27">
+        <f>E6-E8</f>
+        <v>307984.90000000002</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27" t="str">
+        <f>IF(G7="","",G6-G8)</f>
+        <v/>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27" t="str">
+        <f>IF(I7="","",I6-I8)</f>
+        <v/>
+      </c>
+      <c r="J10" s="242"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="1"/>
+      <c r="L10" s="74"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="B11" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="186">
-        <f>(C8-C10)/C8</f>
-        <v>0.41589966398417966</v>
-      </c>
-      <c r="D11" s="186"/>
-      <c r="E11" s="73">
-        <f>C11</f>
-        <v>0.41589966398417966</v>
-      </c>
-      <c r="F11" s="186"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="329"/>
+        <v>50</v>
+      </c>
+      <c r="C11" s="189">
+        <f>C12/C6</f>
+        <v>0.33114405485413889</v>
+      </c>
+      <c r="D11" s="189"/>
+      <c r="E11" s="226">
+        <f>E12/E6</f>
+        <v>0.65122348530723417</v>
+      </c>
+      <c r="F11" s="189"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="330"/>
       <c r="K11" s="6"/>
       <c r="L11" s="74"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B12" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="27">
-        <f>C8-C10</f>
-        <v>599808</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27">
-        <f>E8-E10</f>
-        <v>484099.51473380148</v>
-      </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27" t="str">
-        <f>IF(G9="","",G8-G10)</f>
-        <v/>
-      </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27" t="str">
-        <f>IF(I9="","",I8-I10)</f>
-        <v/>
-      </c>
-      <c r="J12" s="242"/>
+      <c r="B12" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="183">
+        <f>123069+18827+58671</f>
+        <v>200567</v>
+      </c>
+      <c r="D12" s="263"/>
+      <c r="E12" s="76">
+        <f>C12</f>
+        <v>200567</v>
+      </c>
+      <c r="F12" s="263"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="263"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="331"/>
       <c r="K12" s="6"/>
       <c r="L12" s="74"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="B13" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="189">
-        <f>C14/C8</f>
-        <v>0.41535119408345894</v>
-      </c>
-      <c r="D13" s="189"/>
-      <c r="E13" s="226">
-        <f>E14/E8</f>
-        <v>0.51462759502620947</v>
-      </c>
-      <c r="F13" s="189"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="330"/>
+        <v>51</v>
+      </c>
+      <c r="C13" s="18">
+        <f>C15/C6</f>
+        <v>0.66885594514586111</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18">
+        <f>E15/E6</f>
+        <v>0.34877651469276583</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18" t="str">
+        <f>IF(G7="","",G15/G6)</f>
+        <v/>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18" t="str">
+        <f>IF(I7="","",I15/I6)</f>
+        <v/>
+      </c>
+      <c r="J13" s="231"/>
       <c r="K13" s="6"/>
       <c r="L13" s="74"/>
+      <c r="M13" s="57"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B14" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="183">
-        <f>435254+163763</f>
-        <v>599017</v>
-      </c>
-      <c r="D14" s="263"/>
-      <c r="E14" s="76">
-        <f>C14</f>
-        <v>599017</v>
-      </c>
-      <c r="F14" s="263"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="263"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="331"/>
+      <c r="B14" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="188"/>
+      <c r="D14" s="264"/>
+      <c r="E14" s="14">
+        <f>IF(ABS(C15+E15)=ABS(C15)+ABS(E15),IF(E15&lt;0,-1,1)*(E15-C15)/C15,"Turn")</f>
+        <v>-0.73484394439068701</v>
+      </c>
+      <c r="F14" s="264"/>
+      <c r="G14" s="14" t="str">
+        <f>IF(G7="","",IF(ABS(E15+G15)=ABS(E15)+ABS(G15),IF(G15&lt;0,-1,1)*(G15-E15)/E15,"Turn"))</f>
+        <v/>
+      </c>
+      <c r="H14" s="264"/>
+      <c r="I14" s="14" t="str">
+        <f>IF(I7="","",IF(ABS(G15+I15)=ABS(G15)+ABS(I15),IF(I15&lt;0,-1,1)*(I15-G15)/G15,"Turn"))</f>
+        <v/>
+      </c>
+      <c r="J14" s="332"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="74"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="78"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B15" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="18">
-        <f>C17/C8</f>
-        <v>5.4846990072070743E-4</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18">
-        <f>E17/E8</f>
-        <v>-9.8727931042029871E-2</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18" t="str">
-        <f>IF(G9="","",G17/G8)</f>
-        <v/>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18" t="str">
-        <f>IF(I9="","",I17/I8)</f>
-        <v/>
-      </c>
-      <c r="J15" s="231"/>
+      <c r="B15" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="319">
+        <f>C10-C12</f>
+        <v>405112</v>
+      </c>
+      <c r="D15" s="320"/>
+      <c r="E15" s="319">
+        <f>E10-E12</f>
+        <v>107417.90000000002</v>
+      </c>
+      <c r="F15" s="320"/>
+      <c r="G15" s="319" t="str">
+        <f>IF(G7="","",G10-G12)</f>
+        <v/>
+      </c>
+      <c r="H15" s="320"/>
+      <c r="I15" s="319" t="str">
+        <f>IF(I7="","",I10-I12)</f>
+        <v/>
+      </c>
+      <c r="J15" s="333"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="57"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="56"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B16" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="188"/>
-      <c r="D16" s="264"/>
-      <c r="E16" s="14" t="str">
-        <f>IF(ABS(C17+E17)=ABS(C17)+ABS(E17),IF(E17&lt;0,-1,1)*(E17-C17)/C17,"Turn")</f>
-        <v>Turn</v>
-      </c>
-      <c r="F16" s="264"/>
-      <c r="G16" s="14" t="str">
-        <f>IF(G9="","",IF(ABS(E17+G17)=ABS(E17)+ABS(G17),IF(G17&lt;0,-1,1)*(G17-E17)/E17,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="H16" s="264"/>
-      <c r="I16" s="14" t="str">
-        <f>IF(I9="","",IF(ABS(G17+I17)=ABS(G17)+ABS(I17),IF(I17&lt;0,-1,1)*(I17-G17)/G17,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="J16" s="332"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="78"/>
-    </row>
-    <row r="17" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B17" s="134" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="319">
-        <f>C12-C14</f>
-        <v>791</v>
-      </c>
-      <c r="D17" s="320"/>
-      <c r="E17" s="319">
-        <f>E12-E14</f>
-        <v>-114917.48526619852</v>
-      </c>
-      <c r="F17" s="320"/>
-      <c r="G17" s="319" t="str">
-        <f>IF(G9="","",G12-G14)</f>
-        <v/>
-      </c>
-      <c r="H17" s="320"/>
-      <c r="I17" s="319" t="str">
-        <f>IF(I9="","",I12-I14)</f>
-        <v/>
-      </c>
-      <c r="J17" s="333"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="56"/>
-    </row>
-    <row r="18" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B18" s="315" t="s">
+      <c r="B16" s="315" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="316">
+      <c r="C16" s="316">
         <v>0.25</v>
       </c>
-      <c r="D18" s="317"/>
-      <c r="E18" s="318">
-        <f>IF(E17="","",C18)</f>
+      <c r="D16" s="317"/>
+      <c r="E16" s="318">
+        <f>IF(E15="","",C16)</f>
         <v>0.25</v>
       </c>
-      <c r="F18" s="318"/>
-      <c r="G18" s="318" t="str">
-        <f>IF(G17="","",E18)</f>
-        <v/>
-      </c>
-      <c r="H18" s="318"/>
-      <c r="I18" s="318" t="str">
-        <f>IF(I17="","",G18)</f>
-        <v/>
-      </c>
-      <c r="J18" s="334"/>
-    </row>
-    <row r="19" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B19" s="324" t="s">
+      <c r="F16" s="318"/>
+      <c r="G16" s="318" t="str">
+        <f>IF(G15="","",E16)</f>
+        <v/>
+      </c>
+      <c r="H16" s="318"/>
+      <c r="I16" s="318" t="str">
+        <f>IF(I15="","",G16)</f>
+        <v/>
+      </c>
+      <c r="J16" s="334"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B17" s="324" t="s">
         <v>295</v>
       </c>
-      <c r="C19" s="264">
-        <f>C20/C10</f>
-        <v>7.0424959579100312E-4</v>
-      </c>
-      <c r="D19" s="326"/>
-      <c r="E19" s="325">
-        <f>E20/E10</f>
-        <v>-0.16902563644366031</v>
-      </c>
-      <c r="F19" s="325"/>
-      <c r="G19" s="325" t="str">
-        <f>IF(G10="","",G20/G10)</f>
-        <v/>
-      </c>
-      <c r="H19" s="325"/>
-      <c r="I19" s="325" t="str">
-        <f>IF(I10="","",I20/I10)</f>
-        <v/>
-      </c>
-      <c r="J19" s="335"/>
-    </row>
-    <row r="20" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B20" s="321" t="s">
+      <c r="C17" s="264">
+        <f>C18/C6</f>
+        <v>0.50164195885939578</v>
+      </c>
+      <c r="D17" s="326"/>
+      <c r="E17" s="325">
+        <f>E18/E6</f>
+        <v>0.2615823860195744</v>
+      </c>
+      <c r="F17" s="325"/>
+      <c r="G17" s="325" t="str">
+        <f>IF(G8="","",G18/G6)</f>
+        <v/>
+      </c>
+      <c r="H17" s="325"/>
+      <c r="I17" s="325" t="str">
+        <f>IF(I8="","",I18/I6)</f>
+        <v/>
+      </c>
+      <c r="J17" s="335"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B18" s="321" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="322">
-        <f>IF(C17&lt;=0,C17,C17*(1-C18))</f>
-        <v>593.25</v>
-      </c>
-      <c r="D20" s="322"/>
-      <c r="E20" s="323">
-        <f>IF(E17="","",IF(E17&lt;=0,E17,E17*(1-E18)))</f>
-        <v>-114917.48526619852</v>
-      </c>
-      <c r="F20" s="322"/>
-      <c r="G20" s="323" t="str">
-        <f>IF(G17="","",IF(G17&lt;=0,G17,G17*(1-G18)))</f>
-        <v/>
-      </c>
-      <c r="H20" s="322"/>
-      <c r="I20" s="323" t="str">
-        <f>IF(I17="","",IF(I17&lt;=0,I17,I17*(1-I18)))</f>
-        <v/>
-      </c>
-      <c r="J20" s="336"/>
-    </row>
-    <row r="21" spans="2:13" ht="15.75" customHeight="1"/>
-    <row r="22" spans="2:13" ht="15.75" customHeight="1"/>
-    <row r="23" spans="2:13" ht="15.75" customHeight="1"/>
-    <row r="24" spans="2:13" ht="15.75" customHeight="1"/>
-    <row r="25" spans="2:13" ht="15.75" customHeight="1"/>
-    <row r="26" spans="2:13" ht="15.75" customHeight="1"/>
-    <row r="27" spans="2:13" ht="15.75" customHeight="1"/>
-    <row r="28" spans="2:13" ht="15.75" customHeight="1"/>
-    <row r="29" spans="2:13" ht="15.75" customHeight="1"/>
-    <row r="30" spans="2:13" ht="15.75" customHeight="1"/>
-    <row r="31" spans="2:13" ht="15.75" customHeight="1"/>
-    <row r="32" spans="2:13" ht="15.75" customHeight="1"/>
+      <c r="C18" s="322">
+        <f>IF(C15&lt;=0,C15,C15*(1-C16))</f>
+        <v>303834</v>
+      </c>
+      <c r="D18" s="322"/>
+      <c r="E18" s="323">
+        <f>IF(E15="","",IF(E15&lt;=0,E15,E15*(1-E16)))</f>
+        <v>80563.425000000017</v>
+      </c>
+      <c r="F18" s="322"/>
+      <c r="G18" s="323" t="str">
+        <f>IF(G15="","",IF(G15&lt;=0,G15,G15*(1-G16)))</f>
+        <v/>
+      </c>
+      <c r="H18" s="322"/>
+      <c r="I18" s="323" t="str">
+        <f>IF(I15="","",IF(I15&lt;=0,I15,I15*(1-I16)))</f>
+        <v/>
+      </c>
+      <c r="J18" s="336"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" customHeight="1"/>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1"/>
+    <row r="21" spans="2:10" ht="15.75" customHeight="1"/>
+    <row r="22" spans="2:10" ht="15.75" customHeight="1"/>
+    <row r="23" spans="2:10" ht="15.75" customHeight="1"/>
+    <row r="24" spans="2:10" ht="15.75" customHeight="1"/>
+    <row r="25" spans="2:10" ht="15.75" customHeight="1"/>
+    <row r="26" spans="2:10" ht="15.75" customHeight="1"/>
+    <row r="27" spans="2:10" ht="15.75" customHeight="1"/>
+    <row r="28" spans="2:10" ht="15.75" customHeight="1"/>
+    <row r="29" spans="2:10" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:10" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:10" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -12236,39 +12181,37 @@
     <row r="899" ht="15.75" customHeight="1"/>
     <row r="900" ht="15.75" customHeight="1"/>
     <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
-  <conditionalFormatting sqref="E18:E20">
+  <conditionalFormatting sqref="E16:E18">
     <cfRule type="containsBlanks" dxfId="6" priority="2">
-      <formula>LEN(TRIM(E18))=0</formula>
+      <formula>LEN(TRIM(E16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20 I20">
+  <conditionalFormatting sqref="G18 I18">
     <cfRule type="containsBlanks" dxfId="5" priority="4">
-      <formula>LEN(TRIM(G20))=0</formula>
+      <formula>LEN(TRIM(G18))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:H13 G15:H17 H14">
+  <conditionalFormatting sqref="G7:H11 G13:H15 H12">
     <cfRule type="containsBlanks" dxfId="4" priority="10">
-      <formula>LEN(TRIM(G9))=0</formula>
+      <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="11">
-      <formula>LEN(TRIM(G9))=0</formula>
+      <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:J20">
+  <conditionalFormatting sqref="G7:J18">
     <cfRule type="containsBlanks" dxfId="3" priority="1">
-      <formula>LEN(TRIM(G9))=0</formula>
+      <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:J17">
+  <conditionalFormatting sqref="I7:J15">
     <cfRule type="containsBlanks" dxfId="2" priority="6">
-      <formula>LEN(TRIM(I9))=0</formula>
+      <formula>LEN(TRIM(I7))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="7">
-      <formula>LEN(TRIM(I9))=0</formula>
+      <formula>LEN(TRIM(I7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12285,7 +12228,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -12360,19 +12303,19 @@
         <v>80</v>
       </c>
       <c r="C4" s="182">
-        <f>Operation!C20</f>
-        <v>593.25</v>
+        <f>Operation!C18</f>
+        <v>303834</v>
       </c>
       <c r="D4" s="45">
-        <f>Operation!E20</f>
-        <v>-114917.48526619852</v>
+        <f>Operation!E18</f>
+        <v>80563.425000000017</v>
       </c>
       <c r="E4" s="45" t="str">
-        <f>Operation!G20</f>
+        <f>Operation!G18</f>
         <v/>
       </c>
       <c r="F4" s="201" t="str">
-        <f>Operation!I20</f>
+        <f>Operation!I18</f>
         <v/>
       </c>
       <c r="G4" s="303">
@@ -12390,7 +12333,7 @@
       <c r="C5" s="257"/>
       <c r="D5" s="258">
         <f>D4/C4-1</f>
-        <v>-194.70836117353312</v>
+        <v>-0.7348439443906869</v>
       </c>
       <c r="E5" s="258" t="str">
         <f>IF(E4="","",E4/D4-1)</f>
@@ -12427,11 +12370,11 @@
       </c>
       <c r="C7" s="309">
         <f>C4*C6</f>
-        <v>229.11314999999999</v>
+        <v>117340.6908</v>
       </c>
       <c r="D7" s="309">
         <f>D4*D6</f>
-        <v>-44381.132809805866</v>
+        <v>31113.594735000006</v>
       </c>
       <c r="E7" s="310"/>
       <c r="F7" s="310"/>
@@ -12446,11 +12389,11 @@
       </c>
       <c r="C8" s="192">
         <f>IF(C4="","",C4-C7)</f>
-        <v>364.13684999999998</v>
+        <v>186493.30920000002</v>
       </c>
       <c r="D8" s="191">
         <f>D4-D7</f>
-        <v>-70536.352456392662</v>
+        <v>49449.830265000011</v>
       </c>
       <c r="E8" s="191" t="str">
         <f>IF(E4="","",E4-E7)</f>
@@ -12462,7 +12405,7 @@
       </c>
       <c r="G8" s="229">
         <f>IF(F4="",IF(E4="",D8,E8),F8)</f>
-        <v>-70536.352456392662</v>
+        <v>49449.830265000011</v>
       </c>
       <c r="H8" s="82"/>
       <c r="I8" s="56"/>
@@ -12474,11 +12417,11 @@
       </c>
       <c r="C9" s="193">
         <f>C8/(Common_Shares/Data!$C$4)</f>
-        <v>1.0042938287480845E-4</v>
+        <v>5.1435079842198993E-2</v>
       </c>
       <c r="D9" s="305">
         <f>D8/(Common_Shares/Data!$C$4)</f>
-        <v>-1.945401117034844E-2</v>
+        <v>1.3638322890907571E-2</v>
       </c>
       <c r="E9" s="305" t="str">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
@@ -12490,7 +12433,7 @@
       </c>
       <c r="G9" s="306">
         <f>G8*Data!C$4/Dashboard!I5</f>
-        <v>-1.945401117034844E-2</v>
+        <v>1.3638322890907571E-2</v>
       </c>
       <c r="H9" s="82"/>
       <c r="I9" s="56"/>
@@ -12506,7 +12449,7 @@
       </c>
       <c r="D10" s="311">
         <f>D11/D9</f>
-        <v>-11.308721788713745</v>
+        <v>1.979715557108596</v>
       </c>
       <c r="E10" s="343"/>
       <c r="F10" s="343"/>
@@ -12523,7 +12466,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="284">
-        <v>0.22</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E11" s="344"/>
       <c r="F11" s="344"/>
@@ -12540,13 +12483,14 @@
         <v>0</v>
       </c>
       <c r="D12" s="236">
-        <v>0.22</v>
+        <f>D11</f>
+        <v>2.7E-2</v>
       </c>
       <c r="E12" s="345"/>
       <c r="F12" s="345"/>
       <c r="G12" s="230">
         <f>IF(G9&lt;0,G9,G9*D27)</f>
-        <v>-1.945401117034844E-2</v>
+        <v>0.10910658312726057</v>
       </c>
       <c r="H12" s="82"/>
       <c r="I12" s="56"/>
@@ -12612,7 +12556,7 @@
       </c>
       <c r="D15" s="195">
         <f ca="1">IF(D12="","",MAX(D9-D11+D12,D12)/D14)</f>
-        <v>0.20072992700729925</v>
+        <v>2.4635036496350363E-2</v>
       </c>
       <c r="E15" s="196" t="str">
         <f>IF(E9="","",E9/E14)</f>
@@ -12624,7 +12568,7 @@
       </c>
       <c r="G15" s="233">
         <f ca="1">IF(G12=0,0,G12/G14)</f>
-        <v>-1.6195264773653063E-2</v>
+        <v>9.0830111426471627E-2</v>
       </c>
       <c r="H15" s="80"/>
       <c r="I15" s="56"/>
@@ -12652,18 +12596,18 @@
       </c>
       <c r="C18" s="84">
         <f>Asset_Model!E59</f>
-        <v>1564617</v>
+        <v>938770.2</v>
       </c>
       <c r="D18" s="219">
         <f>C18/(Dashboard!I5/Data!C4)</f>
-        <v>0.43152325765830668</v>
+        <v>0.25891395459498401</v>
       </c>
       <c r="E18" s="85" t="s">
         <v>231</v>
       </c>
       <c r="G18" s="137">
         <f>C18+C19+C20+C21</f>
-        <v>1562987.2</v>
+        <v>937140.39999999991</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
@@ -12679,11 +12623,11 @@
         <v>4.0493133264813427E-4</v>
       </c>
       <c r="E19" s="85" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G19" s="197">
         <f>(G18+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
-        <v>0.39937937566718557</v>
+        <v>0.25846445378722627</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
@@ -12724,7 +12668,7 @@
       <c r="E21" s="459"/>
       <c r="F21" s="148">
         <f>D18+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
-        <v>0.39982887647494331</v>
+        <v>0.25891395459498401</v>
       </c>
       <c r="G21" s="147">
         <f>SUM(D19:D21)</f>
@@ -12787,16 +12731,16 @@
         <v>5</v>
       </c>
       <c r="E25" s="206">
-        <f>IF(G9&lt;0,G9,G9*D25/G14)</f>
-        <v>-1.945401117034844E-2</v>
+        <f ca="1">IF(G9&lt;0,G9,G9*D25/G14)</f>
+        <v>5.6768819641544774E-2</v>
       </c>
       <c r="F25" s="206">
-        <f>E25+$G$19</f>
-        <v>0.37992536449683711</v>
+        <f ca="1">E25+$G$19</f>
+        <v>0.31523327342877105</v>
       </c>
       <c r="G25" s="206">
-        <f>ROUND(F25*Exchange_Rate,2)</f>
-        <v>0.43</v>
+        <f ca="1">ROUND(F25*Exchange_Rate,2)</f>
+        <v>0.36</v>
       </c>
       <c r="I25" s="74"/>
     </row>
@@ -12806,22 +12750,22 @@
       </c>
       <c r="C26" s="349">
         <f>1/D26</f>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D26" s="350">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E26" s="351">
-        <f>IF(G9&lt;0,G9,G9*D26/G14)</f>
-        <v>-1.945401117034844E-2</v>
+        <f ca="1">IF(G9&lt;0,G9,G9*D26/G14)</f>
+        <v>6.812258356985372E-2</v>
       </c>
       <c r="F26" s="351">
-        <f>E26+$G$19</f>
-        <v>0.37992536449683711</v>
+        <f ca="1">E26+$G$19</f>
+        <v>0.32658703735708</v>
       </c>
       <c r="G26" s="351">
-        <f>ROUND(F26*Exchange_Rate,2)</f>
-        <v>0.43</v>
+        <f ca="1">ROUND(F26*Exchange_Rate,2)</f>
+        <v>0.37</v>
       </c>
       <c r="I26" s="74" t="s">
         <v>299</v>
@@ -12839,16 +12783,16 @@
         <v>8</v>
       </c>
       <c r="E27" s="207">
-        <f>IF(G9&lt;0,G9,G9*D27/G14)</f>
-        <v>-1.945401117034844E-2</v>
+        <f ca="1">IF(G9&lt;0,G9,G9*D27/G14)</f>
+        <v>9.0830111426471627E-2</v>
       </c>
       <c r="F27" s="207">
-        <f>E27+$G$19</f>
-        <v>0.37992536449683711</v>
+        <f ca="1">E27+$G$19</f>
+        <v>0.34929456521369789</v>
       </c>
       <c r="G27" s="207">
-        <f>ROUND(F27*Exchange_Rate,2)</f>
-        <v>0.43</v>
+        <f ca="1">ROUND(F27*Exchange_Rate,2)</f>
+        <v>0.39</v>
       </c>
       <c r="I27" s="74" t="s">
         <v>298</v>
@@ -12873,11 +12817,11 @@
       <c r="D29" s="127"/>
       <c r="E29" s="133"/>
       <c r="F29" s="366" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G29" s="369">
         <f>IF(Asset_Model!D7&lt;G19,Asset_Model!D7,G19)</f>
-        <v>0.39937937566718557</v>
+        <v>0.25846445378722627</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="90"/>
@@ -12888,16 +12832,16 @@
         <v>147</v>
       </c>
       <c r="C30" s="252">
-        <f>MIN(G29,G25)+(ABS(G29-G25)*'Qualitative Analysis'!E8)</f>
-        <v>0.4140772753469365</v>
+        <f ca="1">MIN(G29,G25)+(ABS(G29-G25)*'Qualitative Analysis'!E8)</f>
+        <v>0.30720151596935769</v>
       </c>
       <c r="D30" s="23" t="str">
-        <f>IF(C30&lt;E30,"&lt;",IF(C30=E30,"=","&gt;"))</f>
+        <f ca="1">IF(C30&lt;E30,"&lt;",IF(C30=E30,"=","&gt;"))</f>
         <v>&lt;</v>
       </c>
       <c r="E30" s="251">
-        <f>MAX(G26, G19*Exchange_Rate)</f>
-        <v>0.45144193441210811</v>
+        <f ca="1">MAX(G26, G19*Exchange_Rate)</f>
+        <v>0.37</v>
       </c>
       <c r="F30" s="30"/>
       <c r="H30" s="6"/>
@@ -12932,20 +12876,20 @@
         <v>226</v>
       </c>
       <c r="C33" s="253">
-        <f>MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64</f>
-        <v>0.4312357876611842</v>
+        <f ca="1">MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64</f>
+        <v>0.33603969055771488</v>
       </c>
       <c r="D33" s="119" t="str">
         <f>Dashboard!J4</f>
         <v>HKD</v>
       </c>
       <c r="E33" s="120">
-        <f>(C33-G19)/C9</f>
-        <v>317.2021084079513</v>
+        <f ca="1">(C33-G19)/C9</f>
+        <v>1.508216513097417</v>
       </c>
       <c r="F33" s="158">
-        <f>C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.63512243426305259</v>
+        <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
+        <v>0.49657195989352987</v>
       </c>
       <c r="G33" s="87"/>
       <c r="H33" s="6"/>
@@ -12957,7 +12901,7 @@
       </c>
       <c r="C34" s="254">
         <f>MAX(Asset_Model!D7,G19*Exchange_Rate,(G12/(1+G34)^G4+G19)*Exchange_Rate)</f>
-        <v>0.45144193441210811</v>
+        <v>0.40563393861687647</v>
       </c>
       <c r="D34" s="208" t="str">
         <f>D33</f>
@@ -12965,11 +12909,11 @@
       </c>
       <c r="E34" s="120">
         <f>(C34-G19)/C9</f>
-        <v>518.39966805154836</v>
+        <v>2.8612667712611892</v>
       </c>
       <c r="F34" s="158">
         <f>C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.66488197064366084</v>
+        <v>0.59941264546462592</v>
       </c>
       <c r="G34" s="280">
         <f>Dashboard!D10+4.5%</f>
@@ -14627,7 +14571,7 @@
         <v>2.3129251700680271</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F54" s="53"/>
       <c r="G54" s="294"/>

--- a/financial_models/Opportunities/9982.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/9982.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FFD5F6-0AFC-49F1-855C-F5DBF53051EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536989D9-A984-4E44-9A65-C2915BB4E327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4555,8 +4555,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:F22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4626,7 +4626,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>0.45500000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4676,7 +4676,7 @@
       <c r="H6" s="133"/>
       <c r="I6" s="415">
         <f>I4*I5/1000000</f>
-        <v>1649.7389708800001</v>
+        <v>1232.77197824</v>
       </c>
       <c r="J6" s="416"/>
       <c r="K6" s="151"/>
@@ -4687,11 +4687,11 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>0.30060909147449416</v>
+        <v>0.40228569594380836</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40*Exchange_Rate)/I4</f>
-        <v>4.3759724174660579E-3</v>
+        <v>5.8560807351384012E-3</v>
       </c>
       <c r="E7" s="153"/>
       <c r="F7" s="6"/>
@@ -4718,11 +4718,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>4.8252758382012289</v>
+        <v>3.6057006263481708</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.20724203828579071</v>
+        <v>0.27733861005892585</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4741,11 +4741,11 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.67236177183882639</v>
-      </c>
-      <c r="J10" s="130">
+        <v>0.50242418115428789</v>
+      </c>
+      <c r="J10" s="130" t="str">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>0.27424834245015423</v>
+        <v>Negative EV</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -4847,14 +4847,14 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>0.45500000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="C16" s="389">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">IF(B17='FCFF Model'!G29,"Net Asset", H14/B16-1-C16)</f>
-        <v>-0.36145122954348374</v>
+        <v>-0.11164796894789755</v>
       </c>
       <c r="E16" s="384">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>6.6852811142638482E-2</v>
+        <v>8.9464791382060316E-2</v>
       </c>
       <c r="G16" s="392" t="s">
         <v>25</v>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>0.16381558263571089</v>
+        <v>4.8815582635710897E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -4905,24 +4905,24 @@
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="355">
         <f>C35</f>
-        <v>0.43</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C18" s="391"/>
       <c r="D18" s="160">
         <f ca="1">IF(B17='FCFF Model'!G29,"NA: "&amp;ROUND('FCFF Model'!G29/B18-1,2)*100&amp;"%", H14/B18-1-C16)</f>
-        <v>-0.31851234754019797</v>
+        <v>0.1001417519918387</v>
       </c>
       <c r="E18" s="386"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
-        <v>7.0739602488140721E-2</v>
+        <v>0.10863581810678753</v>
       </c>
       <c r="G18" s="394"/>
       <c r="H18" s="419"/>
       <c r="I18" s="394"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>0.13881558263571087</v>
+        <v>-1.1184417364289101E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -5101,7 +5101,7 @@
         <v>37</v>
       </c>
       <c r="C29" s="447">
-        <v>0.43</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D29" s="422"/>
       <c r="E29" s="447"/>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="C30" s="435">
         <f>C29*$I$5/1000000</f>
-        <v>1559.09397248</v>
+        <v>1015.22398208</v>
       </c>
       <c r="D30" s="442"/>
       <c r="E30" s="435">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="C35" s="370">
         <f>C29</f>
-        <v>0.43</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D35" s="371"/>
       <c r="G35" s="374" t="s">
@@ -5296,11 +5296,11 @@
       </c>
       <c r="E42" s="358">
         <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="102" t="str">
         <f ca="1">IF(F45&lt;D10,"Strongly Disagree",IF(F45&lt;10%,"Disagree",IF(F45&gt;=30%,"Strongly Agree",IF(F45&gt;=20%,"Agree","So-so"))))</f>
-        <v>Strongly Disagree</v>
+        <v>Strongly Agree</v>
       </c>
       <c r="G42" s="74" t="s">
         <v>325</v>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="F45" s="365">
         <f ca="1">I35/C29-1</f>
-        <v>-0.13953488372093026</v>
+        <v>0.3214285714285714</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="F46" s="365">
         <f ca="1">D14/C29-1</f>
-        <v>-0.28557786983870304</v>
+        <v>9.7148271319134505E-2</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
@@ -5348,7 +5348,7 @@
       </c>
       <c r="F48" s="214">
         <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
-        <v>0</v>
+        <v>0.64784353741496603</v>
       </c>
       <c r="G48" s="74"/>
     </row>
@@ -5358,34 +5358,34 @@
       </c>
       <c r="D49" s="367">
         <f ca="1">IF(F42="Strongly Agree",2,IF(F42="Agree",3,4))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E49" s="363">
         <f ca="1">F45/ABS(F46)</f>
-        <v>-0.48860538038098267</v>
+        <v>3.3086391251643632</v>
       </c>
       <c r="F49" s="360">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>-0.48860538038098267</v>
+        <v>100</v>
       </c>
       <c r="G49" s="74"/>
     </row>
     <row r="50" spans="2:8" ht="15.75" customHeight="1">
       <c r="B50" s="368" t="str">
         <f ca="1">IF(D49=2,"⇒ 1/2 Kelly %",IF(D49=3, "⇒ 1/3 Kelly %", "⇒ 1/4 Kelly %"))</f>
-        <v>⇒ 1/4 Kelly %</v>
+        <v>⇒ 1/2 Kelly %</v>
       </c>
       <c r="C50" s="85" t="str">
         <f ca="1">" [W – (1 – W)/R] /"&amp;D49</f>
-        <v xml:space="preserve"> [W – (1 – W)/R] /4</v>
+        <v xml:space="preserve"> [W – (1 – W)/R] /2</v>
       </c>
       <c r="E50" s="107">
         <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/D49</f>
-        <v>0</v>
+        <v>0.32216098639455787</v>
       </c>
       <c r="F50" s="359">
         <f ca="1">MIN(E50,H50)</f>
-        <v>0</v>
+        <v>0.32216098639455787</v>
       </c>
       <c r="G50" s="362" t="s">
         <v>331</v>
@@ -6459,7 +6459,7 @@
   <dimension ref="A1:N941"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -9632,8 +9632,8 @@
   </sheetPr>
   <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10758,7 +10758,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="454">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>83325.970880000154</v>
+        <v>-333641.02176000015</v>
       </c>
       <c r="E60" s="455"/>
       <c r="F60" s="6"/>
@@ -10843,7 +10843,7 @@
   <dimension ref="A1:M901"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -12228,7 +12228,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>

--- a/financial_models/Opportunities/9982.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/9982.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83A2D537-50CF-4928-921F-9D29588D4E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC537BB8-245A-4DE1-AD01-2D7D5897A12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3905,201 +3905,201 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4575,27 +4575,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="372" t="s">
+      <c r="C3" s="411" t="s">
         <v>330</v>
       </c>
-      <c r="D3" s="373"/>
+      <c r="D3" s="412"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="384" t="s">
+      <c r="I3" s="421" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="385"/>
+      <c r="J3" s="422"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="374" t="s">
+      <c r="C4" s="413" t="s">
         <v>331</v>
       </c>
-      <c r="D4" s="375"/>
+      <c r="D4" s="414"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4612,10 +4612,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="376">
+      <c r="C5" s="415">
         <v>45058</v>
       </c>
-      <c r="D5" s="375"/>
+      <c r="D5" s="414"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4623,10 +4623,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="386">
+      <c r="I5" s="383">
         <v>3625799936</v>
       </c>
-      <c r="J5" s="387"/>
+      <c r="J5" s="384"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4649,11 +4649,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="388">
+      <c r="I6" s="423">
         <f>I4*I5/1000000</f>
         <v>1359.674976</v>
       </c>
-      <c r="J6" s="389"/>
+      <c r="J6" s="424"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4662,11 +4662,11 @@
       </c>
       <c r="C7" s="142">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>0.35010362364095093</v>
+        <v>0.35009283005536945</v>
       </c>
       <c r="D7" s="142">
         <f>(Data!C40*Exchange_Rate)/I4</f>
-        <v>5.0964652891667727E-3</v>
+        <v>5.0963081667305945E-3</v>
       </c>
       <c r="E7" s="150"/>
       <c r="F7" s="6"/>
@@ -4693,11 +4693,11 @@
       </c>
       <c r="I9" s="119">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>4.1431213157710234</v>
+        <v>4.1432490508477144</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.24136391956311876</v>
+        <v>0.24135647838871732</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.57730925282262469</v>
+        <v>0.57732705163566034</v>
       </c>
       <c r="J10" s="127" t="str">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
@@ -4727,36 +4727,36 @@
       <c r="B11" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="403">
+      <c r="C11" s="381">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="404"/>
+      <c r="D11" s="382"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="401" t="s">
+      <c r="I11" s="378" t="s">
         <v>324</v>
       </c>
-      <c r="J11" s="402"/>
+      <c r="J11" s="379"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="399">
+      <c r="C12" s="429">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="400"/>
+      <c r="D12" s="430"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="130"/>
       <c r="I12" s="132">
-        <v>1.0813883145650227</v>
+        <v>1.0813549757003784</v>
       </c>
       <c r="J12" s="133" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4775,7 +4775,7 @@
       <c r="D14" s="239"/>
       <c r="E14" s="190">
         <f ca="1">'FCFF Model'!C27</f>
-        <v>0.1764892128056163</v>
+        <v>0.17648587147602446</v>
       </c>
       <c r="F14" s="181"/>
       <c r="G14" s="182"/>
@@ -4814,28 +4814,28 @@
         <f>I4</f>
         <v>0.375</v>
       </c>
-      <c r="C16" s="420">
+      <c r="C16" s="404">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
         <f ca="1">I35/B16-(1+J25)</f>
-        <v>-0.53141912731631646</v>
-      </c>
-      <c r="E16" s="393" t="s">
+        <v>-0.53142476158598628</v>
+      </c>
+      <c r="E16" s="395" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="390">
+      <c r="F16" s="425">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
-        <v>0.2791955707430524</v>
-      </c>
-      <c r="G16" s="393" t="s">
+        <v>0.27918696323063813</v>
+      </c>
+      <c r="G16" s="395" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>9.5804429256947599E-2</v>
-      </c>
-      <c r="I16" s="411">
+        <v>9.581303676936187E-2</v>
+      </c>
+      <c r="I16" s="390">
         <v>2.7E-2</v>
       </c>
       <c r="J16" s="158">
@@ -4846,24 +4846,24 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
         <f ca="1">(I35+I36)/2</f>
-        <v>0.19595459875043719</v>
-      </c>
-      <c r="C17" s="421"/>
+        <v>0.19595220579303735</v>
+      </c>
+      <c r="C17" s="405"/>
       <c r="D17" s="268">
         <f ca="1">I35/B17-(1+J25)</f>
-        <v>7.9468962990193459E-2</v>
-      </c>
-      <c r="E17" s="394"/>
-      <c r="F17" s="391"/>
-      <c r="G17" s="394"/>
+        <v>7.9473805311783163E-2</v>
+      </c>
+      <c r="E17" s="396"/>
+      <c r="F17" s="426"/>
+      <c r="G17" s="396"/>
       <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
-        <v>-8.3240971992615209E-2</v>
-      </c>
-      <c r="I17" s="412"/>
+        <v>-8.3234757437600781E-2</v>
+      </c>
+      <c r="I17" s="391"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
-        <v>0.13778701889199607</v>
+        <v>0.13778870153938003</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -4871,19 +4871,19 @@
         <f>C35</f>
         <v>0.19</v>
       </c>
-      <c r="C18" s="422"/>
+      <c r="C18" s="406"/>
       <c r="D18" s="157">
         <f ca="1">I35/B18-(1+J25)</f>
-        <v>0.11956751187569115</v>
-      </c>
-      <c r="E18" s="395"/>
-      <c r="F18" s="392"/>
-      <c r="G18" s="395"/>
+        <v>0.11955639160660603</v>
+      </c>
+      <c r="E18" s="397"/>
+      <c r="F18" s="427"/>
+      <c r="G18" s="397"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
-        <v>-8.9195570743052399E-2</v>
-      </c>
-      <c r="I18" s="413"/>
+        <v>-8.9186963230638128E-2</v>
+      </c>
+      <c r="I18" s="392"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
         <v>0.14210526315789473</v>
@@ -4916,52 +4916,52 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="379" t="s">
+      <c r="C21" s="418" t="s">
         <v>338</v>
       </c>
-      <c r="D21" s="380"/>
-      <c r="E21" s="380"/>
-      <c r="F21" s="380"/>
-      <c r="G21" s="380"/>
-      <c r="H21" s="380"/>
-      <c r="I21" s="380"/>
-      <c r="J21" s="381"/>
+      <c r="D21" s="419"/>
+      <c r="E21" s="419"/>
+      <c r="F21" s="419"/>
+      <c r="G21" s="419"/>
+      <c r="H21" s="419"/>
+      <c r="I21" s="419"/>
+      <c r="J21" s="420"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="397" t="s">
+      <c r="C22" s="380" t="s">
         <v>339</v>
       </c>
-      <c r="D22" s="398"/>
-      <c r="E22" s="398"/>
-      <c r="F22" s="398"/>
-      <c r="G22" s="397" t="s">
+      <c r="D22" s="364"/>
+      <c r="E22" s="364"/>
+      <c r="F22" s="364"/>
+      <c r="G22" s="380" t="s">
         <v>340</v>
       </c>
-      <c r="H22" s="397"/>
-      <c r="I22" s="398"/>
-      <c r="J22" s="398"/>
+      <c r="H22" s="380"/>
+      <c r="I22" s="364"/>
+      <c r="J22" s="364"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="382" t="s">
+      <c r="C23" s="393" t="s">
         <v>341</v>
       </c>
-      <c r="D23" s="383"/>
-      <c r="E23" s="383"/>
-      <c r="F23" s="383"/>
-      <c r="G23" s="382" t="s">
+      <c r="D23" s="394"/>
+      <c r="E23" s="394"/>
+      <c r="F23" s="394"/>
+      <c r="G23" s="393" t="s">
         <v>342</v>
       </c>
-      <c r="H23" s="382"/>
-      <c r="I23" s="383"/>
-      <c r="J23" s="383"/>
+      <c r="H23" s="393"/>
+      <c r="I23" s="394"/>
+      <c r="J23" s="394"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -5000,205 +5000,205 @@
       <c r="B26" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="377"/>
-      <c r="D26" s="378"/>
-      <c r="E26" s="417" t="str">
+      <c r="C26" s="416"/>
+      <c r="D26" s="417"/>
+      <c r="E26" s="401" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F26" s="418"/>
-      <c r="G26" s="418"/>
-      <c r="H26" s="419"/>
-      <c r="I26" s="396" t="s">
+      <c r="F26" s="402"/>
+      <c r="G26" s="402"/>
+      <c r="H26" s="403"/>
+      <c r="I26" s="428" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="396"/>
+      <c r="J26" s="428"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="410">
+      <c r="C27" s="389">
         <f>C31/D25</f>
         <v>0.2878787878787879</v>
       </c>
-      <c r="D27" s="409"/>
-      <c r="E27" s="408">
+      <c r="D27" s="375"/>
+      <c r="E27" s="388">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="409"/>
-      <c r="G27" s="415">
+      <c r="F27" s="375"/>
+      <c r="G27" s="399">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="416"/>
-      <c r="I27" s="414">
+      <c r="H27" s="400"/>
+      <c r="I27" s="398">
         <f>C27+E27+G27</f>
         <v>0.2878787878787879</v>
       </c>
-      <c r="J27" s="414"/>
+      <c r="J27" s="398"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="436">
+      <c r="C28" s="363">
         <v>1000000</v>
       </c>
-      <c r="D28" s="398"/>
-      <c r="E28" s="436">
+      <c r="D28" s="364"/>
+      <c r="E28" s="363">
         <v>0</v>
       </c>
-      <c r="F28" s="398"/>
-      <c r="G28" s="386"/>
-      <c r="H28" s="387"/>
-      <c r="I28" s="426">
+      <c r="F28" s="364"/>
+      <c r="G28" s="383"/>
+      <c r="H28" s="384"/>
+      <c r="I28" s="377">
         <f>C28+E28+G28</f>
         <v>1000000</v>
       </c>
-      <c r="J28" s="426"/>
+      <c r="J28" s="377"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="437">
+      <c r="C29" s="365">
         <v>0.19</v>
       </c>
-      <c r="D29" s="398"/>
-      <c r="E29" s="437">
+      <c r="D29" s="364"/>
+      <c r="E29" s="365">
         <v>0.19</v>
       </c>
-      <c r="F29" s="398"/>
-      <c r="G29" s="406"/>
-      <c r="H29" s="407"/>
-      <c r="I29" s="405"/>
-      <c r="J29" s="405"/>
+      <c r="F29" s="364"/>
+      <c r="G29" s="386"/>
+      <c r="H29" s="387"/>
+      <c r="I29" s="385"/>
+      <c r="J29" s="385"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="424">
+      <c r="C30" s="361">
         <f>C29*$I$5/1000000</f>
         <v>688.90198784000006</v>
       </c>
-      <c r="D30" s="432"/>
-      <c r="E30" s="424">
+      <c r="D30" s="362"/>
+      <c r="E30" s="361">
         <f>E29*$I$5/1000000</f>
         <v>688.90198784000006</v>
       </c>
-      <c r="F30" s="432"/>
-      <c r="G30" s="368">
+      <c r="F30" s="362"/>
+      <c r="G30" s="407">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="369"/>
-      <c r="I30" s="423"/>
-      <c r="J30" s="423"/>
+      <c r="H30" s="408"/>
+      <c r="I30" s="376"/>
+      <c r="J30" s="376"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="433">
+      <c r="C31" s="370">
         <f>C28*C29</f>
         <v>190000</v>
       </c>
-      <c r="D31" s="434"/>
-      <c r="E31" s="425">
+      <c r="D31" s="371"/>
+      <c r="E31" s="372">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="435"/>
-      <c r="G31" s="370">
+      <c r="F31" s="373"/>
+      <c r="G31" s="409">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="371"/>
-      <c r="I31" s="425">
+      <c r="H31" s="410"/>
+      <c r="I31" s="372">
         <f>C31+E31+G31</f>
         <v>190000</v>
       </c>
-      <c r="J31" s="425"/>
+      <c r="J31" s="372"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="428"/>
-      <c r="D32" s="429"/>
-      <c r="E32" s="427">
+      <c r="C32" s="366"/>
+      <c r="D32" s="367"/>
+      <c r="E32" s="374">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>0.19</v>
       </c>
-      <c r="F32" s="409"/>
+      <c r="F32" s="375"/>
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
-      <c r="I32" s="427">
+      <c r="I32" s="374">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>0.19</v>
       </c>
-      <c r="J32" s="427"/>
+      <c r="J32" s="374"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="430"/>
-      <c r="D33" s="431"/>
-      <c r="E33" s="424">
+      <c r="C33" s="368"/>
+      <c r="D33" s="369"/>
+      <c r="E33" s="361">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>688.90198784000006</v>
       </c>
-      <c r="F33" s="432"/>
+      <c r="F33" s="362"/>
       <c r="G33" s="116"/>
       <c r="H33" s="116"/>
-      <c r="I33" s="424">
+      <c r="I33" s="361">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>688.90198784000006</v>
       </c>
-      <c r="J33" s="424"/>
+      <c r="J33" s="361"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C35" s="364">
+      <c r="C35" s="434">
         <f>E29</f>
         <v>0.19</v>
       </c>
-      <c r="D35" s="365"/>
-      <c r="G35" s="366" t="s">
+      <c r="D35" s="435"/>
+      <c r="G35" s="436" t="s">
         <v>317</v>
       </c>
-      <c r="H35" s="367"/>
-      <c r="I35" s="362">
+      <c r="H35" s="437"/>
+      <c r="I35" s="432">
         <f ca="1">'FCFF Model'!C31</f>
-        <v>0.25071782725638131</v>
-      </c>
-      <c r="J35" s="363"/>
+        <v>0.25071571440525514</v>
+      </c>
+      <c r="J35" s="433"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="143" t="s">
         <v>318</v>
       </c>
-      <c r="C36" s="364">
+      <c r="C36" s="434">
         <f>E32</f>
         <v>0.19</v>
       </c>
-      <c r="D36" s="365"/>
-      <c r="G36" s="361" t="s">
+      <c r="D36" s="435"/>
+      <c r="G36" s="431" t="s">
         <v>315</v>
       </c>
-      <c r="H36" s="361"/>
-      <c r="I36" s="362">
+      <c r="H36" s="431"/>
+      <c r="I36" s="432">
         <f ca="1">'FCFF Model'!C32</f>
-        <v>0.14119137024449305</v>
-      </c>
-      <c r="J36" s="363"/>
+        <v>0.14118869718081956</v>
+      </c>
+      <c r="J36" s="433"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
@@ -5284,11 +5284,11 @@
       </c>
       <c r="E45" s="329">
         <f ca="1">I35/C29-1</f>
-        <v>0.3195675118756911</v>
+        <v>0.31955639160660598</v>
       </c>
       <c r="F45" s="332">
         <f ca="1">I35/C36-1</f>
-        <v>0.3195675118756911</v>
+        <v>0.31955639160660598</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
@@ -5297,11 +5297,11 @@
       </c>
       <c r="E46" s="329">
         <f ca="1">I36/C29-1</f>
-        <v>-0.25688752502898393</v>
+        <v>-0.2569015937851602</v>
       </c>
       <c r="F46" s="332">
         <f ca="1">I36/C36-1</f>
-        <v>-0.25688752502898393</v>
+        <v>-0.2569015937851602</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
@@ -5311,11 +5311,11 @@
       </c>
       <c r="E48" s="353">
         <f ca="1">IF(E45&lt;=0,0,AVERAGE(F39:F41,1-F42,E45/J25))</f>
-        <v>0.68909982480086118</v>
+        <v>0.68908870453177606</v>
       </c>
       <c r="F48" s="329">
         <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
-        <v>0.68909982480086118</v>
+        <v>0.68908870453177606</v>
       </c>
       <c r="G48" s="73"/>
     </row>
@@ -5326,11 +5326,11 @@
       <c r="D49" s="326"/>
       <c r="E49" s="328">
         <f ca="1">IF(E46&gt;=0,100,E45/ABS(E46))</f>
-        <v>1.2439977840093059</v>
+        <v>1.2438863725923097</v>
       </c>
       <c r="F49" s="328">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>1.2439977840093059</v>
+        <v>1.2438863725923097</v>
       </c>
       <c r="G49" s="73"/>
     </row>
@@ -5340,11 +5340,11 @@
       </c>
       <c r="E50" s="358">
         <f ca="1">MAX(J25*2/E45,1)</f>
-        <v>1.2516916931017583</v>
+        <v>1.2517352508236643</v>
       </c>
       <c r="F50" s="358">
         <f ca="1">MAX(J25*2/F45,1)</f>
-        <v>1.2516916931017583</v>
+        <v>1.2517352508236643</v>
       </c>
       <c r="G50" s="330"/>
       <c r="H50" s="84"/>
@@ -5356,11 +5356,11 @@
       </c>
       <c r="E51" s="327">
         <f ca="1">MIN(MAX(E48-ABS((1-E48)/E49),0)/E50,H51)</f>
-        <v>0.35086884976900395</v>
+        <v>0.35082273146362364</v>
       </c>
       <c r="F51" s="327">
         <f ca="1">MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
-        <v>0.35086884976900395</v>
+        <v>0.35082273146362364</v>
       </c>
       <c r="G51" s="330" t="s">
         <v>304</v>
@@ -6305,38 +6305,12 @@
     <row r="965" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C3:D3"/>
@@ -6353,12 +6327,38 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="I4" s="89">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>0.64956519952957836</v>
+        <v>0.6495451736369614</v>
       </c>
       <c r="K4" s="73"/>
     </row>
@@ -9733,7 +9733,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>0.13217104722437029</v>
+        <v>0.13216697243218514</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10645,7 +10645,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>3098</v>
       </c>
-      <c r="E53" s="434"/>
+      <c r="E53" s="371"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10664,7 +10664,7 @@
       <c r="D54" s="448">
         <v>0</v>
       </c>
-      <c r="E54" s="398"/>
+      <c r="E54" s="364"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -10678,7 +10678,7 @@
       <c r="D55" s="448">
         <v>0</v>
       </c>
-      <c r="E55" s="398"/>
+      <c r="E55" s="364"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -12731,7 +12731,7 @@
       </c>
       <c r="C27" s="238">
         <f ca="1">MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$8</f>
-        <v>0.1764892128056163</v>
+        <v>0.17648587147602446</v>
       </c>
       <c r="D27" s="117" t="str">
         <f>Dashboard!J4</f>
@@ -12739,11 +12739,11 @@
       </c>
       <c r="E27" s="118">
         <f ca="1">(C27-G16)/C9</f>
-        <v>-1.218760299976321</v>
+        <v>-1.2188101483605689</v>
       </c>
       <c r="F27" s="155">
         <f ca="1">C27/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.27170361486950279</v>
+        <v>0.27170684755894209</v>
       </c>
       <c r="G27" s="86"/>
       <c r="H27" s="6"/>
@@ -12782,7 +12782,7 @@
       </c>
       <c r="F30" s="155">
         <f ca="1">C30/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.58251747246515262</v>
+        <v>0.58253543185092682</v>
       </c>
       <c r="I30" s="73"/>
     </row>
@@ -12792,7 +12792,7 @@
       </c>
       <c r="C31" s="350">
         <f ca="1">MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E64</f>
-        <v>0.25071782725638131</v>
+        <v>0.25071571440525514</v>
       </c>
       <c r="D31" s="334" t="str">
         <f>D30</f>
@@ -12800,11 +12800,11 @@
       </c>
       <c r="E31" s="118">
         <f ca="1">(C31-G16)/C9</f>
-        <v>-0.11136385983980038</v>
+        <v>-0.1113953808891015</v>
       </c>
       <c r="F31" s="155">
         <f ca="1">C31/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.38597792406051568</v>
+        <v>0.38598657119017121</v>
       </c>
       <c r="I31" s="73"/>
     </row>
@@ -12814,7 +12814,7 @@
       </c>
       <c r="C32" s="350">
         <f ca="1">IF(Asset_Model!D7&gt;C27,Asset_Model!D7,C27)/(1+Dashboard!C16)</f>
-        <v>0.14119137024449305</v>
+        <v>0.14118869718081956</v>
       </c>
       <c r="D32" s="334" t="str">
         <f>D30</f>
@@ -12822,11 +12822,11 @@
       </c>
       <c r="E32" s="118">
         <f ca="1">(C32-G16)/C9</f>
-        <v>-1.7453591794773571</v>
+        <v>-1.7453990581847556</v>
       </c>
       <c r="F32" s="155">
         <f ca="1">C32/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.21736289189560226</v>
+        <v>0.21736547804715367</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>

--- a/financial_models/Opportunities/9982.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/9982.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC537BB8-245A-4DE1-AD01-2D7D5897A12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21620469-96FE-466F-A8B7-823DC82385FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3905,201 +3905,201 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4575,27 +4575,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="411" t="s">
+      <c r="C3" s="372" t="s">
         <v>330</v>
       </c>
-      <c r="D3" s="412"/>
+      <c r="D3" s="373"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="421" t="s">
+      <c r="I3" s="384" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="422"/>
+      <c r="J3" s="385"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="413" t="s">
+      <c r="C4" s="374" t="s">
         <v>331</v>
       </c>
-      <c r="D4" s="414"/>
+      <c r="D4" s="375"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4612,10 +4612,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="415">
+      <c r="C5" s="376">
         <v>45058</v>
       </c>
-      <c r="D5" s="414"/>
+      <c r="D5" s="375"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4623,10 +4623,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="383">
+      <c r="I5" s="386">
         <v>3625799936</v>
       </c>
-      <c r="J5" s="384"/>
+      <c r="J5" s="387"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4649,11 +4649,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="423">
+      <c r="I6" s="388">
         <f>I4*I5/1000000</f>
         <v>1359.674976</v>
       </c>
-      <c r="J6" s="424"/>
+      <c r="J6" s="389"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4662,11 +4662,11 @@
       </c>
       <c r="C7" s="142">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>0.35009283005536945</v>
+        <v>0.3502693868712457</v>
       </c>
       <c r="D7" s="142">
         <f>(Data!C40*Exchange_Rate)/I4</f>
-        <v>5.0963081667305945E-3</v>
+        <v>5.0988783077486203E-3</v>
       </c>
       <c r="E7" s="150"/>
       <c r="F7" s="6"/>
@@ -4693,11 +4693,11 @@
       </c>
       <c r="I9" s="119">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>4.1432490508477144</v>
+        <v>4.1411606043913052</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.24135647838871732</v>
+        <v>0.24147819790896194</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.57732705163566034</v>
+        <v>0.57703604411465914</v>
       </c>
       <c r="J10" s="127" t="str">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
@@ -4727,36 +4727,36 @@
       <c r="B11" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="381">
+      <c r="C11" s="403">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="382"/>
+      <c r="D11" s="404"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="378" t="s">
+      <c r="I11" s="401" t="s">
         <v>324</v>
       </c>
-      <c r="J11" s="379"/>
+      <c r="J11" s="402"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="429">
+      <c r="C12" s="399">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="430"/>
+      <c r="D12" s="400"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="130"/>
       <c r="I12" s="132">
-        <v>1.0813549757003784</v>
+        <v>1.0819003184636433</v>
       </c>
       <c r="J12" s="133" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4775,7 +4775,7 @@
       <c r="D14" s="239"/>
       <c r="E14" s="190">
         <f ca="1">'FCFF Model'!C27</f>
-        <v>0.17648587147602446</v>
+        <v>0.17654052750381749</v>
       </c>
       <c r="F14" s="181"/>
       <c r="G14" s="182"/>
@@ -4814,28 +4814,28 @@
         <f>I4</f>
         <v>0.375</v>
       </c>
-      <c r="C16" s="404">
+      <c r="C16" s="420">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
         <f ca="1">I35/B16-(1+J25)</f>
-        <v>-0.53142476158598628</v>
-      </c>
-      <c r="E16" s="395" t="s">
+        <v>-0.53133259863372395</v>
+      </c>
+      <c r="E16" s="393" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="425">
+      <c r="F16" s="390">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
-        <v>0.27918696323063813</v>
-      </c>
-      <c r="G16" s="395" t="s">
+        <v>0.27932776120486219</v>
+      </c>
+      <c r="G16" s="393" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>9.581303676936187E-2</v>
-      </c>
-      <c r="I16" s="390">
+        <v>9.5672238795137809E-2</v>
+      </c>
+      <c r="I16" s="411">
         <v>2.7E-2</v>
       </c>
       <c r="J16" s="158">
@@ -4846,24 +4846,24 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
         <f ca="1">(I35+I36)/2</f>
-        <v>0.19595220579303735</v>
-      </c>
-      <c r="C17" s="405"/>
+        <v>0.19599134875770374</v>
+      </c>
+      <c r="C17" s="421"/>
       <c r="D17" s="268">
         <f ca="1">I35/B17-(1+J25)</f>
-        <v>7.9473805311783163E-2</v>
-      </c>
-      <c r="E17" s="396"/>
-      <c r="F17" s="426"/>
-      <c r="G17" s="396"/>
+        <v>7.9394611556788952E-2</v>
+      </c>
+      <c r="E17" s="394"/>
+      <c r="F17" s="391"/>
+      <c r="G17" s="394"/>
       <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
-        <v>-8.3234757437600781E-2</v>
-      </c>
-      <c r="I17" s="391"/>
+        <v>-8.3336412447158448E-2</v>
+      </c>
+      <c r="I17" s="412"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
-        <v>0.13778870153938003</v>
+        <v>0.13776118268046117</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -4871,19 +4871,19 @@
         <f>C35</f>
         <v>0.19</v>
       </c>
-      <c r="C18" s="406"/>
+      <c r="C18" s="422"/>
       <c r="D18" s="157">
         <f ca="1">I35/B18-(1+J25)</f>
-        <v>0.11955639160660603</v>
-      </c>
-      <c r="E18" s="397"/>
-      <c r="F18" s="427"/>
-      <c r="G18" s="397"/>
+        <v>0.11973829217028165</v>
+      </c>
+      <c r="E18" s="395"/>
+      <c r="F18" s="392"/>
+      <c r="G18" s="395"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
-        <v>-8.9186963230638128E-2</v>
-      </c>
-      <c r="I18" s="392"/>
+        <v>-8.9327761204862188E-2</v>
+      </c>
+      <c r="I18" s="413"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
         <v>0.14210526315789473</v>
@@ -4916,52 +4916,52 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="418" t="s">
+      <c r="C21" s="379" t="s">
         <v>338</v>
       </c>
-      <c r="D21" s="419"/>
-      <c r="E21" s="419"/>
-      <c r="F21" s="419"/>
-      <c r="G21" s="419"/>
-      <c r="H21" s="419"/>
-      <c r="I21" s="419"/>
-      <c r="J21" s="420"/>
+      <c r="D21" s="380"/>
+      <c r="E21" s="380"/>
+      <c r="F21" s="380"/>
+      <c r="G21" s="380"/>
+      <c r="H21" s="380"/>
+      <c r="I21" s="380"/>
+      <c r="J21" s="381"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="380" t="s">
+      <c r="C22" s="397" t="s">
         <v>339</v>
       </c>
-      <c r="D22" s="364"/>
-      <c r="E22" s="364"/>
-      <c r="F22" s="364"/>
-      <c r="G22" s="380" t="s">
+      <c r="D22" s="398"/>
+      <c r="E22" s="398"/>
+      <c r="F22" s="398"/>
+      <c r="G22" s="397" t="s">
         <v>340</v>
       </c>
-      <c r="H22" s="380"/>
-      <c r="I22" s="364"/>
-      <c r="J22" s="364"/>
+      <c r="H22" s="397"/>
+      <c r="I22" s="398"/>
+      <c r="J22" s="398"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="393" t="s">
+      <c r="C23" s="382" t="s">
         <v>341</v>
       </c>
-      <c r="D23" s="394"/>
-      <c r="E23" s="394"/>
-      <c r="F23" s="394"/>
-      <c r="G23" s="393" t="s">
+      <c r="D23" s="383"/>
+      <c r="E23" s="383"/>
+      <c r="F23" s="383"/>
+      <c r="G23" s="382" t="s">
         <v>342</v>
       </c>
-      <c r="H23" s="393"/>
-      <c r="I23" s="394"/>
-      <c r="J23" s="394"/>
+      <c r="H23" s="382"/>
+      <c r="I23" s="383"/>
+      <c r="J23" s="383"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -5000,205 +5000,205 @@
       <c r="B26" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="416"/>
-      <c r="D26" s="417"/>
-      <c r="E26" s="401" t="str">
+      <c r="C26" s="377"/>
+      <c r="D26" s="378"/>
+      <c r="E26" s="417" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F26" s="402"/>
-      <c r="G26" s="402"/>
-      <c r="H26" s="403"/>
-      <c r="I26" s="428" t="s">
+      <c r="F26" s="418"/>
+      <c r="G26" s="418"/>
+      <c r="H26" s="419"/>
+      <c r="I26" s="396" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="428"/>
+      <c r="J26" s="396"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="389">
+      <c r="C27" s="410">
         <f>C31/D25</f>
         <v>0.2878787878787879</v>
       </c>
-      <c r="D27" s="375"/>
-      <c r="E27" s="388">
+      <c r="D27" s="409"/>
+      <c r="E27" s="408">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="375"/>
-      <c r="G27" s="399">
+      <c r="F27" s="409"/>
+      <c r="G27" s="415">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="400"/>
-      <c r="I27" s="398">
+      <c r="H27" s="416"/>
+      <c r="I27" s="414">
         <f>C27+E27+G27</f>
         <v>0.2878787878787879</v>
       </c>
-      <c r="J27" s="398"/>
+      <c r="J27" s="414"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="363">
+      <c r="C28" s="436">
         <v>1000000</v>
       </c>
-      <c r="D28" s="364"/>
-      <c r="E28" s="363">
+      <c r="D28" s="398"/>
+      <c r="E28" s="436">
         <v>0</v>
       </c>
-      <c r="F28" s="364"/>
-      <c r="G28" s="383"/>
-      <c r="H28" s="384"/>
-      <c r="I28" s="377">
+      <c r="F28" s="398"/>
+      <c r="G28" s="386"/>
+      <c r="H28" s="387"/>
+      <c r="I28" s="426">
         <f>C28+E28+G28</f>
         <v>1000000</v>
       </c>
-      <c r="J28" s="377"/>
+      <c r="J28" s="426"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="365">
+      <c r="C29" s="437">
         <v>0.19</v>
       </c>
-      <c r="D29" s="364"/>
-      <c r="E29" s="365">
+      <c r="D29" s="398"/>
+      <c r="E29" s="437">
         <v>0.19</v>
       </c>
-      <c r="F29" s="364"/>
-      <c r="G29" s="386"/>
-      <c r="H29" s="387"/>
-      <c r="I29" s="385"/>
-      <c r="J29" s="385"/>
+      <c r="F29" s="398"/>
+      <c r="G29" s="406"/>
+      <c r="H29" s="407"/>
+      <c r="I29" s="405"/>
+      <c r="J29" s="405"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="361">
+      <c r="C30" s="424">
         <f>C29*$I$5/1000000</f>
         <v>688.90198784000006</v>
       </c>
-      <c r="D30" s="362"/>
-      <c r="E30" s="361">
+      <c r="D30" s="432"/>
+      <c r="E30" s="424">
         <f>E29*$I$5/1000000</f>
         <v>688.90198784000006</v>
       </c>
-      <c r="F30" s="362"/>
-      <c r="G30" s="407">
+      <c r="F30" s="432"/>
+      <c r="G30" s="368">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="408"/>
-      <c r="I30" s="376"/>
-      <c r="J30" s="376"/>
+      <c r="H30" s="369"/>
+      <c r="I30" s="423"/>
+      <c r="J30" s="423"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="370">
+      <c r="C31" s="433">
         <f>C28*C29</f>
         <v>190000</v>
       </c>
-      <c r="D31" s="371"/>
-      <c r="E31" s="372">
+      <c r="D31" s="434"/>
+      <c r="E31" s="425">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="373"/>
-      <c r="G31" s="409">
+      <c r="F31" s="435"/>
+      <c r="G31" s="370">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="410"/>
-      <c r="I31" s="372">
+      <c r="H31" s="371"/>
+      <c r="I31" s="425">
         <f>C31+E31+G31</f>
         <v>190000</v>
       </c>
-      <c r="J31" s="372"/>
+      <c r="J31" s="425"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="366"/>
-      <c r="D32" s="367"/>
-      <c r="E32" s="374">
+      <c r="C32" s="428"/>
+      <c r="D32" s="429"/>
+      <c r="E32" s="427">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>0.19</v>
       </c>
-      <c r="F32" s="375"/>
+      <c r="F32" s="409"/>
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
-      <c r="I32" s="374">
+      <c r="I32" s="427">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>0.19</v>
       </c>
-      <c r="J32" s="374"/>
+      <c r="J32" s="427"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="368"/>
-      <c r="D33" s="369"/>
-      <c r="E33" s="361">
+      <c r="C33" s="430"/>
+      <c r="D33" s="431"/>
+      <c r="E33" s="424">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>688.90198784000006</v>
       </c>
-      <c r="F33" s="362"/>
+      <c r="F33" s="432"/>
       <c r="G33" s="116"/>
       <c r="H33" s="116"/>
-      <c r="I33" s="361">
+      <c r="I33" s="424">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>688.90198784000006</v>
       </c>
-      <c r="J33" s="361"/>
+      <c r="J33" s="424"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C35" s="434">
+      <c r="C35" s="364">
         <f>E29</f>
         <v>0.19</v>
       </c>
-      <c r="D35" s="435"/>
-      <c r="G35" s="436" t="s">
+      <c r="D35" s="365"/>
+      <c r="G35" s="366" t="s">
         <v>317</v>
       </c>
-      <c r="H35" s="437"/>
-      <c r="I35" s="432">
+      <c r="H35" s="367"/>
+      <c r="I35" s="362">
         <f ca="1">'FCFF Model'!C31</f>
-        <v>0.25071571440525514</v>
-      </c>
-      <c r="J35" s="433"/>
+        <v>0.25075027551235352</v>
+      </c>
+      <c r="J35" s="363"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="143" t="s">
         <v>318</v>
       </c>
-      <c r="C36" s="434">
+      <c r="C36" s="364">
         <f>E32</f>
         <v>0.19</v>
       </c>
-      <c r="D36" s="435"/>
-      <c r="G36" s="431" t="s">
+      <c r="D36" s="365"/>
+      <c r="G36" s="361" t="s">
         <v>315</v>
       </c>
-      <c r="H36" s="431"/>
-      <c r="I36" s="432">
+      <c r="H36" s="361"/>
+      <c r="I36" s="362">
         <f ca="1">'FCFF Model'!C32</f>
-        <v>0.14118869718081956</v>
-      </c>
-      <c r="J36" s="433"/>
+        <v>0.141232422003054</v>
+      </c>
+      <c r="J36" s="363"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
@@ -5284,11 +5284,11 @@
       </c>
       <c r="E45" s="329">
         <f ca="1">I35/C29-1</f>
-        <v>0.31955639160660598</v>
+        <v>0.3197382921702816</v>
       </c>
       <c r="F45" s="332">
         <f ca="1">I35/C36-1</f>
-        <v>0.31955639160660598</v>
+        <v>0.3197382921702816</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
@@ -5297,11 +5297,11 @@
       </c>
       <c r="E46" s="329">
         <f ca="1">I36/C29-1</f>
-        <v>-0.2569015937851602</v>
+        <v>-0.2566714631418211</v>
       </c>
       <c r="F46" s="332">
         <f ca="1">I36/C36-1</f>
-        <v>-0.2569015937851602</v>
+        <v>-0.2566714631418211</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
@@ -5311,11 +5311,11 @@
       </c>
       <c r="E48" s="353">
         <f ca="1">IF(E45&lt;=0,0,AVERAGE(F39:F41,1-F42,E45/J25))</f>
-        <v>0.68908870453177606</v>
+        <v>0.68927060509545168</v>
       </c>
       <c r="F48" s="329">
         <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
-        <v>0.68908870453177606</v>
+        <v>0.68927060509545168</v>
       </c>
       <c r="G48" s="73"/>
     </row>
@@ -5326,11 +5326,11 @@
       <c r="D49" s="326"/>
       <c r="E49" s="328">
         <f ca="1">IF(E46&gt;=0,100,E45/ABS(E46))</f>
-        <v>1.2438863725923097</v>
+        <v>1.2457103265648726</v>
       </c>
       <c r="F49" s="328">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>1.2438863725923097</v>
+        <v>1.2457103265648726</v>
       </c>
       <c r="G49" s="73"/>
     </row>
@@ -5340,11 +5340,11 @@
       </c>
       <c r="E50" s="358">
         <f ca="1">MAX(J25*2/E45,1)</f>
-        <v>1.2517352508236643</v>
+        <v>1.2510231329658001</v>
       </c>
       <c r="F50" s="358">
         <f ca="1">MAX(J25*2/F45,1)</f>
-        <v>1.2517352508236643</v>
+        <v>1.2510231329658001</v>
       </c>
       <c r="G50" s="330"/>
       <c r="H50" s="84"/>
@@ -5356,11 +5356,11 @@
       </c>
       <c r="E51" s="327">
         <f ca="1">MIN(MAX(E48-ABS((1-E48)/E49),0)/E50,H51)</f>
-        <v>0.35082273146362364</v>
+        <v>0.35157709421268291</v>
       </c>
       <c r="F51" s="327">
         <f ca="1">MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
-        <v>0.35082273146362364</v>
+        <v>0.35157709421268291</v>
       </c>
       <c r="G51" s="330" t="s">
         <v>304</v>
@@ -6305,12 +6305,38 @@
     <row r="965" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C3:D3"/>
@@ -6327,38 +6353,12 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="I4" s="89">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>0.6495451736369614</v>
+        <v>0.64987274854789856</v>
       </c>
       <c r="K4" s="73"/>
     </row>
@@ -9733,7 +9733,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>0.13216697243218514</v>
+        <v>0.13223362612461564</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10645,7 +10645,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>3098</v>
       </c>
-      <c r="E53" s="371"/>
+      <c r="E53" s="434"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10664,7 +10664,7 @@
       <c r="D54" s="448">
         <v>0</v>
       </c>
-      <c r="E54" s="364"/>
+      <c r="E54" s="398"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -10678,7 +10678,7 @@
       <c r="D55" s="448">
         <v>0</v>
       </c>
-      <c r="E55" s="364"/>
+      <c r="E55" s="398"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -12731,7 +12731,7 @@
       </c>
       <c r="C27" s="238">
         <f ca="1">MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$8</f>
-        <v>0.17648587147602446</v>
+        <v>0.17654052750381749</v>
       </c>
       <c r="D27" s="117" t="str">
         <f>Dashboard!J4</f>
@@ -12739,11 +12739,11 @@
       </c>
       <c r="E27" s="118">
         <f ca="1">(C27-G16)/C9</f>
-        <v>-1.2188101483605689</v>
+        <v>-1.2179947499989283</v>
       </c>
       <c r="F27" s="155">
         <f ca="1">C27/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.27170684755894209</v>
+        <v>0.27165399364458143</v>
       </c>
       <c r="G27" s="86"/>
       <c r="H27" s="6"/>
@@ -12782,7 +12782,7 @@
       </c>
       <c r="F30" s="155">
         <f ca="1">C30/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.58253543185092682</v>
+        <v>0.58224179899336703</v>
       </c>
       <c r="I30" s="73"/>
     </row>
@@ -12792,7 +12792,7 @@
       </c>
       <c r="C31" s="350">
         <f ca="1">MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E64</f>
-        <v>0.25071571440525514</v>
+        <v>0.25075027551235352</v>
       </c>
       <c r="D31" s="334" t="str">
         <f>D30</f>
@@ -12800,11 +12800,11 @@
       </c>
       <c r="E31" s="118">
         <f ca="1">(C31-G16)/C9</f>
-        <v>-0.1113953808891015</v>
+        <v>-0.1108797731648956</v>
       </c>
       <c r="F31" s="155">
         <f ca="1">C31/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.38598657119017121</v>
+        <v>0.38584519211282498</v>
       </c>
       <c r="I31" s="73"/>
     </row>
@@ -12814,7 +12814,7 @@
       </c>
       <c r="C32" s="350">
         <f ca="1">IF(Asset_Model!D7&gt;C27,Asset_Model!D7,C27)/(1+Dashboard!C16)</f>
-        <v>0.14118869718081956</v>
+        <v>0.141232422003054</v>
       </c>
       <c r="D32" s="334" t="str">
         <f>D30</f>
@@ -12822,11 +12822,11 @@
       </c>
       <c r="E32" s="118">
         <f ca="1">(C32-G16)/C9</f>
-        <v>-1.7453990581847556</v>
+        <v>-1.7447467394954428</v>
       </c>
       <c r="F32" s="155">
         <f ca="1">C32/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.21736547804715367</v>
+        <v>0.21732319491566515</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>

--- a/financial_models/Opportunities/9982.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/9982.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21620469-96FE-466F-A8B7-823DC82385FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E283277B-754E-40DF-8086-4689A8CC2EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31410" yWindow="2610" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentManualCount="8"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4601,7 +4601,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4651,7 +4651,7 @@
       <c r="H6" s="130"/>
       <c r="I6" s="388">
         <f>I4*I5/1000000</f>
-        <v>1359.674976</v>
+        <v>1269.0299775999999</v>
       </c>
       <c r="J6" s="389"/>
       <c r="K6" s="148"/>
@@ -4662,11 +4662,11 @@
       </c>
       <c r="C7" s="142">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>0.3502693868712457</v>
+        <v>0.37626462769388969</v>
       </c>
       <c r="D7" s="142">
         <f>(Data!C40*Exchange_Rate)/I4</f>
-        <v>5.0988783077486203E-3</v>
+        <v>5.4772915362618019E-3</v>
       </c>
       <c r="E7" s="150"/>
       <c r="F7" s="6"/>
@@ -4693,11 +4693,11 @@
       </c>
       <c r="I9" s="119">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>4.1411606043913052</v>
+        <v>3.8550575288612374</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.24147819790896194</v>
+        <v>0.2593995011782339</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.57703604411465914</v>
+        <v>0.5371699769213597</v>
       </c>
       <c r="J10" s="127" t="str">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="H12" s="130"/>
       <c r="I12" s="132">
-        <v>1.0819003184636433</v>
+        <v>1.0847139755884807</v>
       </c>
       <c r="J12" s="133" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4775,7 +4775,7 @@
       <c r="D14" s="239"/>
       <c r="E14" s="190">
         <f ca="1">'FCFF Model'!C27</f>
-        <v>0.17654052750381749</v>
+        <v>0.17682252138431648</v>
       </c>
       <c r="F14" s="181"/>
       <c r="G14" s="182"/>
@@ -4812,58 +4812,58 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="128">
         <f>I4</f>
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="C16" s="420">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
         <f ca="1">I35/B16-(1+J25)</f>
-        <v>-0.53133259863372395</v>
+        <v>-0.48306116833847612</v>
       </c>
       <c r="E16" s="393" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="390">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
-        <v>0.27932776120486219</v>
+        <v>0.28005419831932299</v>
       </c>
       <c r="G16" s="393" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>9.5672238795137809E-2</v>
+        <v>6.9945801680676989E-2</v>
       </c>
       <c r="I16" s="411">
         <v>2.7E-2</v>
       </c>
       <c r="J16" s="158">
         <f>I16/B16</f>
-        <v>7.1999999999999995E-2</v>
+        <v>7.7142857142857152E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
         <f ca="1">(I35+I36)/2</f>
-        <v>0.19599134875770374</v>
+        <v>0.19619330409449326</v>
       </c>
       <c r="C17" s="421"/>
       <c r="D17" s="268">
         <f ca="1">I35/B17-(1+J25)</f>
-        <v>7.9394611556788952E-2</v>
+        <v>7.8986519135626043E-2</v>
       </c>
       <c r="E17" s="394"/>
       <c r="F17" s="391"/>
       <c r="G17" s="394"/>
       <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
-        <v>-8.3336412447158448E-2</v>
+        <v>-8.386089422482973E-2</v>
       </c>
       <c r="I17" s="412"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
-        <v>0.13776118268046117</v>
+        <v>0.13761937556745513</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -4874,14 +4874,14 @@
       <c r="C18" s="422"/>
       <c r="D18" s="157">
         <f ca="1">I35/B18-(1+J25)</f>
-        <v>0.11973829217028165</v>
+        <v>0.12067679516596486</v>
       </c>
       <c r="E18" s="395"/>
       <c r="F18" s="392"/>
       <c r="G18" s="395"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
-        <v>-8.9327761204862188E-2</v>
+        <v>-9.0054198319322987E-2</v>
       </c>
       <c r="I18" s="413"/>
       <c r="J18" s="160">
@@ -5177,7 +5177,7 @@
       <c r="H35" s="367"/>
       <c r="I35" s="362">
         <f ca="1">'FCFF Model'!C31</f>
-        <v>0.25075027551235352</v>
+        <v>0.25092859108153331</v>
       </c>
       <c r="J35" s="363"/>
     </row>
@@ -5196,7 +5196,7 @@
       <c r="H36" s="361"/>
       <c r="I36" s="362">
         <f ca="1">'FCFF Model'!C32</f>
-        <v>0.141232422003054</v>
+        <v>0.14145801710745318</v>
       </c>
       <c r="J36" s="363"/>
     </row>
@@ -5284,11 +5284,11 @@
       </c>
       <c r="E45" s="329">
         <f ca="1">I35/C29-1</f>
-        <v>0.3197382921702816</v>
+        <v>0.32067679516596481</v>
       </c>
       <c r="F45" s="332">
         <f ca="1">I35/C36-1</f>
-        <v>0.3197382921702816</v>
+        <v>0.32067679516596481</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
@@ -5297,11 +5297,11 @@
       </c>
       <c r="E46" s="329">
         <f ca="1">I36/C29-1</f>
-        <v>-0.2566714631418211</v>
+        <v>-0.25548412048708857</v>
       </c>
       <c r="F46" s="332">
         <f ca="1">I36/C36-1</f>
-        <v>-0.2566714631418211</v>
+        <v>-0.25548412048708857</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
@@ -5311,11 +5311,11 @@
       </c>
       <c r="E48" s="353">
         <f ca="1">IF(E45&lt;=0,0,AVERAGE(F39:F41,1-F42,E45/J25))</f>
-        <v>0.68927060509545168</v>
+        <v>0.69020910809113489</v>
       </c>
       <c r="F48" s="329">
         <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
-        <v>0.68927060509545168</v>
+        <v>0.69020910809113489</v>
       </c>
       <c r="G48" s="73"/>
     </row>
@@ -5326,11 +5326,11 @@
       <c r="D49" s="326"/>
       <c r="E49" s="328">
         <f ca="1">IF(E46&gt;=0,100,E45/ABS(E46))</f>
-        <v>1.2457103265648726</v>
+        <v>1.2551730986434082</v>
       </c>
       <c r="F49" s="328">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>1.2457103265648726</v>
+        <v>1.2551730986434082</v>
       </c>
       <c r="G49" s="73"/>
     </row>
@@ -5340,11 +5340,11 @@
       </c>
       <c r="E50" s="358">
         <f ca="1">MAX(J25*2/E45,1)</f>
-        <v>1.2510231329658001</v>
+        <v>1.247361848533449</v>
       </c>
       <c r="F50" s="358">
         <f ca="1">MAX(J25*2/F45,1)</f>
-        <v>1.2510231329658001</v>
+        <v>1.247361848533449</v>
       </c>
       <c r="G50" s="330"/>
       <c r="H50" s="84"/>
@@ -5356,11 +5356,11 @@
       </c>
       <c r="E51" s="327">
         <f ca="1">MIN(MAX(E48-ABS((1-E48)/E49),0)/E50,H51)</f>
-        <v>0.35157709421268291</v>
+        <v>0.35546847805694248</v>
       </c>
       <c r="F51" s="327">
         <f ca="1">MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
-        <v>0.35157709421268291</v>
+        <v>0.35546847805694248</v>
       </c>
       <c r="G51" s="330" t="s">
         <v>304</v>
@@ -9690,7 +9690,7 @@
       </c>
       <c r="I4" s="89">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>0.64987274854789856</v>
+        <v>0.65156284795722874</v>
       </c>
       <c r="K4" s="73"/>
     </row>
@@ -9733,7 +9733,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>0.13223362612461564</v>
+        <v>0.13257752110083393</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10742,7 +10742,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="446">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>-208968.02399999998</v>
+        <v>-299613.02240000013</v>
       </c>
       <c r="E60" s="447"/>
       <c r="F60" s="6"/>
@@ -12731,7 +12731,7 @@
       </c>
       <c r="C27" s="238">
         <f ca="1">MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$8</f>
-        <v>0.17654052750381749</v>
+        <v>0.17682252138431648</v>
       </c>
       <c r="D27" s="117" t="str">
         <f>Dashboard!J4</f>
@@ -12739,11 +12739,11 @@
       </c>
       <c r="E27" s="118">
         <f ca="1">(C27-G16)/C9</f>
-        <v>-1.2179947499989283</v>
+        <v>-1.2137877602589811</v>
       </c>
       <c r="F27" s="155">
         <f ca="1">C27/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.27165399364458143</v>
+        <v>0.2713821420891141</v>
       </c>
       <c r="G27" s="86"/>
       <c r="H27" s="6"/>
@@ -12782,7 +12782,7 @@
       </c>
       <c r="F30" s="155">
         <f ca="1">C30/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.58224179899336703</v>
+        <v>0.58073151257410416</v>
       </c>
       <c r="I30" s="73"/>
     </row>
@@ -12792,7 +12792,7 @@
       </c>
       <c r="C31" s="350">
         <f ca="1">MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E64</f>
-        <v>0.25075027551235352</v>
+        <v>0.25092859108153331</v>
       </c>
       <c r="D31" s="334" t="str">
         <f>D30</f>
@@ -12800,11 +12800,11 @@
       </c>
       <c r="E31" s="118">
         <f ca="1">(C31-G16)/C9</f>
-        <v>-0.1108797731648956</v>
+        <v>-0.10821953185510254</v>
       </c>
       <c r="F31" s="155">
         <f ca="1">C31/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.38584519211282498</v>
+        <v>0.38511801565764736</v>
       </c>
       <c r="I31" s="73"/>
     </row>
@@ -12814,7 +12814,7 @@
       </c>
       <c r="C32" s="350">
         <f ca="1">IF(Asset_Model!D7&gt;C27,Asset_Model!D7,C27)/(1+Dashboard!C16)</f>
-        <v>0.141232422003054</v>
+        <v>0.14145801710745318</v>
       </c>
       <c r="D32" s="334" t="str">
         <f>D30</f>
@@ -12822,11 +12822,11 @@
       </c>
       <c r="E32" s="118">
         <f ca="1">(C32-G16)/C9</f>
-        <v>-1.7447467394954428</v>
+        <v>-1.7413811477034853</v>
       </c>
       <c r="F32" s="155">
         <f ca="1">C32/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.21732319491566515</v>
+        <v>0.21710571367129125</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>

--- a/financial_models/Opportunities/9982.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/9982.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E283277B-754E-40DF-8086-4689A8CC2EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2D39B3-7DEE-4028-A7AF-9FA082957681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31410" yWindow="2610" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="354">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1095,9 +1095,6 @@
     <t>1. Value Trap</t>
   </si>
   <si>
-    <t>a) a company with mediocre dividend and low trading volume</t>
-  </si>
-  <si>
     <t>2. Growth Trap</t>
   </si>
   <si>
@@ -1132,9 +1129,6 @@
   </si>
   <si>
     <t>4. The probability of an ex-post recession affecting the company</t>
-  </si>
-  <si>
-    <t>a) High growth company with unproven product or product you don't trust</t>
   </si>
   <si>
     <t>CNY</t>
@@ -1211,6 +1205,46 @@
     <t>1. 建业地产仍未走出债务危机，美元债违约
 2. 中原建业秘密财务支援的担忧
 3. 房地产中短期持续下行</t>
+  </si>
+  <si>
+    <t>What Went Wrong?</t>
+  </si>
+  <si>
+    <t>Can it be Fixed?</t>
+  </si>
+  <si>
+    <t>1. 借了4个亿给建业地产，没有提前公告。很高的财务风险，而且感觉管理层不诚实
+2. 轻资产业务说到底依赖母公司的总资产项目，未来第三方的新业务增长不确定</t>
+  </si>
+  <si>
+    <t>a) Don't buy a mediocre value stock with low trading volume and mediocre dividend</t>
+  </si>
+  <si>
+    <t>b) It's far better to buy a wonderful company at a fair price than a fair company at a wonderful price, but it takes more efforts on research</t>
+  </si>
+  <si>
+    <t>a) Don't buy a High growth company with unproven products or products you don't trust</t>
+  </si>
+  <si>
+    <t>b) Don't buy into unsustainable PE ratios</t>
+  </si>
+  <si>
+    <t>DuPont Formula</t>
+  </si>
+  <si>
+    <t>EBIT / Sales</t>
+  </si>
+  <si>
+    <t>Sales / Total Assets</t>
+  </si>
+  <si>
+    <t>Total Assets / Common Equity</t>
+  </si>
+  <si>
+    <t>ROE = EBIT / Common Equity</t>
+  </si>
+  <si>
+    <t>SGR = b * ROE</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="111">
+  <borders count="121">
     <border>
       <left/>
       <right/>
@@ -2991,13 +3025,139 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="453">
+  <cellXfs count="469">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3905,201 +4065,201 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4137,6 +4297,52 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4145,7 +4351,15 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4528,10 +4742,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L965"/>
+  <dimension ref="A1:L967"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:F22"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4575,27 +4789,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="372" t="s">
-        <v>330</v>
-      </c>
-      <c r="D3" s="373"/>
+      <c r="C3" s="411" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" s="412"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="384" t="s">
+      <c r="I3" s="421" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="385"/>
+      <c r="J3" s="422"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="374" t="s">
-        <v>331</v>
-      </c>
-      <c r="D4" s="375"/>
+      <c r="C4" s="413" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4" s="414"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4612,10 +4826,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="376">
+      <c r="C5" s="415">
         <v>45058</v>
       </c>
-      <c r="D5" s="375"/>
+      <c r="D5" s="414"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4623,10 +4837,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="386">
+      <c r="I5" s="383">
         <v>3625799936</v>
       </c>
-      <c r="J5" s="387"/>
+      <c r="J5" s="384"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4649,11 +4863,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="388">
+      <c r="I6" s="423">
         <f>I4*I5/1000000</f>
         <v>1269.0299775999999</v>
       </c>
-      <c r="J6" s="389"/>
+      <c r="J6" s="424"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4705,7 +4919,7 @@
         <v>255</v>
       </c>
       <c r="C10" s="279" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D10" s="279">
         <v>2.8999999999999998E-2</v>
@@ -4727,30 +4941,30 @@
       <c r="B11" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="403">
+      <c r="C11" s="381">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="404"/>
+      <c r="D11" s="382"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="401" t="s">
-        <v>324</v>
-      </c>
-      <c r="J11" s="402"/>
+      <c r="I11" s="378" t="s">
+        <v>322</v>
+      </c>
+      <c r="J11" s="379"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="399">
+      <c r="C12" s="429">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="400"/>
+      <c r="D12" s="430"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
@@ -4770,7 +4984,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="349" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D14" s="239"/>
       <c r="E14" s="190">
@@ -4803,7 +5017,7 @@
         <v>21</v>
       </c>
       <c r="I15" s="88" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J15" s="88" t="s">
         <v>20</v>
@@ -4814,28 +5028,28 @@
         <f>I4</f>
         <v>0.35</v>
       </c>
-      <c r="C16" s="420">
+      <c r="C16" s="404">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
-        <f ca="1">I35/B16-(1+J25)</f>
+        <f ca="1">I37/B16-(1+J27)</f>
         <v>-0.48306116833847612</v>
       </c>
-      <c r="E16" s="393" t="s">
+      <c r="E16" s="395" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="390">
+      <c r="F16" s="425">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
         <v>0.28005419831932299</v>
       </c>
-      <c r="G16" s="393" t="s">
+      <c r="G16" s="395" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
         <v>6.9945801680676989E-2</v>
       </c>
-      <c r="I16" s="411">
+      <c r="I16" s="390">
         <v>2.7E-2</v>
       </c>
       <c r="J16" s="158">
@@ -4845,22 +5059,22 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
-        <f ca="1">(I35+I36)/2</f>
+        <f ca="1">(I37+I38)/2</f>
         <v>0.19619330409449326</v>
       </c>
-      <c r="C17" s="421"/>
+      <c r="C17" s="405"/>
       <c r="D17" s="268">
-        <f ca="1">I35/B17-(1+J25)</f>
+        <f ca="1">I37/B17-(1+J27)</f>
         <v>7.8986519135626043E-2</v>
       </c>
-      <c r="E17" s="394"/>
-      <c r="F17" s="391"/>
-      <c r="G17" s="394"/>
+      <c r="E17" s="396"/>
+      <c r="F17" s="426"/>
+      <c r="G17" s="396"/>
       <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
         <v>-8.386089422482973E-2</v>
       </c>
-      <c r="I17" s="412"/>
+      <c r="I17" s="391"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
         <v>0.13761937556745513</v>
@@ -4868,22 +5082,22 @@
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="323">
-        <f>C35</f>
+        <f>C37</f>
         <v>0.19</v>
       </c>
-      <c r="C18" s="422"/>
+      <c r="C18" s="406"/>
       <c r="D18" s="157">
-        <f ca="1">I35/B18-(1+J25)</f>
+        <f ca="1">I37/B18-(1+J27)</f>
         <v>0.12067679516596486</v>
       </c>
-      <c r="E18" s="395"/>
-      <c r="F18" s="392"/>
-      <c r="G18" s="395"/>
+      <c r="E18" s="397"/>
+      <c r="F18" s="427"/>
+      <c r="G18" s="397"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
         <v>-9.0054198319322987E-2</v>
       </c>
-      <c r="I18" s="413"/>
+      <c r="I18" s="392"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
         <v>0.14210526315789473</v>
@@ -4916,336 +5130,340 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="379" t="s">
-        <v>338</v>
-      </c>
-      <c r="D21" s="380"/>
-      <c r="E21" s="380"/>
-      <c r="F21" s="380"/>
-      <c r="G21" s="380"/>
-      <c r="H21" s="380"/>
-      <c r="I21" s="380"/>
-      <c r="J21" s="381"/>
+      <c r="C21" s="418" t="s">
+        <v>336</v>
+      </c>
+      <c r="D21" s="419"/>
+      <c r="E21" s="419"/>
+      <c r="F21" s="419"/>
+      <c r="G21" s="419"/>
+      <c r="H21" s="419"/>
+      <c r="I21" s="419"/>
+      <c r="J21" s="420"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="397" t="s">
-        <v>339</v>
-      </c>
-      <c r="D22" s="398"/>
-      <c r="E22" s="398"/>
-      <c r="F22" s="398"/>
-      <c r="G22" s="397" t="s">
-        <v>340</v>
-      </c>
-      <c r="H22" s="397"/>
-      <c r="I22" s="398"/>
-      <c r="J22" s="398"/>
+      <c r="C22" s="380" t="s">
+        <v>337</v>
+      </c>
+      <c r="D22" s="364"/>
+      <c r="E22" s="364"/>
+      <c r="F22" s="364"/>
+      <c r="G22" s="380" t="s">
+        <v>338</v>
+      </c>
+      <c r="H22" s="380"/>
+      <c r="I22" s="364"/>
+      <c r="J22" s="364"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="382" t="s">
+      <c r="C23" s="393" t="s">
+        <v>339</v>
+      </c>
+      <c r="D23" s="394"/>
+      <c r="E23" s="394"/>
+      <c r="F23" s="394"/>
+      <c r="G23" s="393" t="s">
+        <v>340</v>
+      </c>
+      <c r="H23" s="393"/>
+      <c r="I23" s="394"/>
+      <c r="J23" s="394"/>
+    </row>
+    <row r="24" spans="1:10" ht="52.5" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="D23" s="383"/>
-      <c r="E23" s="383"/>
-      <c r="F23" s="383"/>
-      <c r="G23" s="382" t="s">
+      <c r="C24" s="453" t="s">
+        <v>343</v>
+      </c>
+      <c r="D24" s="454"/>
+      <c r="E24" s="454"/>
+      <c r="F24" s="454"/>
+      <c r="G24" s="454"/>
+      <c r="H24" s="454"/>
+      <c r="I24" s="454"/>
+      <c r="J24" s="455"/>
+    </row>
+    <row r="25" spans="1:10" ht="52.5" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="456" t="s">
         <v>342</v>
       </c>
-      <c r="H23" s="382"/>
-      <c r="I23" s="383"/>
-      <c r="J23" s="383"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="20" t="s">
+      <c r="C25" s="457"/>
+      <c r="D25" s="458"/>
+      <c r="E25" s="458"/>
+      <c r="F25" s="458"/>
+      <c r="G25" s="458"/>
+      <c r="H25" s="458"/>
+      <c r="I25" s="458"/>
+      <c r="J25" s="459"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A27" s="4"/>
+      <c r="B27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C27" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D27" s="34">
         <v>660000</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="360" t="s">
-        <v>329</v>
-      </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="359">
+      <c r="E27" s="12"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="360" t="s">
+        <v>327</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="359">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="377"/>
-      <c r="D26" s="378"/>
-      <c r="E26" s="417" t="str">
-        <f>IF(C26="","","Action_Planning")</f>
-        <v/>
-      </c>
-      <c r="F26" s="418"/>
-      <c r="G26" s="418"/>
-      <c r="H26" s="419"/>
-      <c r="I26" s="396" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="396"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="410">
-        <f>C31/D25</f>
-        <v>0.2878787878787879</v>
-      </c>
-      <c r="D27" s="409"/>
-      <c r="E27" s="408">
-        <f>E31/D25</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="409"/>
-      <c r="G27" s="415">
-        <f>G31/D25</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="416"/>
-      <c r="I27" s="414">
-        <f>C27+E27+G27</f>
-        <v>0.2878787878787879</v>
-      </c>
-      <c r="J27" s="414"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="436">
-        <v>1000000</v>
-      </c>
-      <c r="D28" s="398"/>
-      <c r="E28" s="436">
-        <v>0</v>
-      </c>
-      <c r="F28" s="398"/>
-      <c r="G28" s="386"/>
-      <c r="H28" s="387"/>
-      <c r="I28" s="426">
-        <f>C28+E28+G28</f>
-        <v>1000000</v>
-      </c>
-      <c r="J28" s="426"/>
+        <v>31</v>
+      </c>
+      <c r="C28" s="416"/>
+      <c r="D28" s="417"/>
+      <c r="E28" s="401" t="str">
+        <f>IF(C28="","","Action_Planning")</f>
+        <v/>
+      </c>
+      <c r="F28" s="402"/>
+      <c r="G28" s="402"/>
+      <c r="H28" s="403"/>
+      <c r="I28" s="428" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="428"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="437">
-        <v>0.19</v>
-      </c>
-      <c r="D29" s="398"/>
-      <c r="E29" s="437">
-        <v>0.19</v>
-      </c>
-      <c r="F29" s="398"/>
-      <c r="G29" s="406"/>
-      <c r="H29" s="407"/>
-      <c r="I29" s="405"/>
-      <c r="J29" s="405"/>
+        <v>33</v>
+      </c>
+      <c r="C29" s="389">
+        <f>C33/D27</f>
+        <v>0.2878787878787879</v>
+      </c>
+      <c r="D29" s="375"/>
+      <c r="E29" s="388">
+        <f>E33/D27</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="375"/>
+      <c r="G29" s="399">
+        <f>G33/D27</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="400"/>
+      <c r="I29" s="398">
+        <f>C29+E29+G29</f>
+        <v>0.2878787878787879</v>
+      </c>
+      <c r="J29" s="398"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="363">
+        <v>1000000</v>
+      </c>
+      <c r="D30" s="364"/>
+      <c r="E30" s="363">
+        <v>0</v>
+      </c>
+      <c r="F30" s="364"/>
+      <c r="G30" s="383"/>
+      <c r="H30" s="384"/>
+      <c r="I30" s="377">
+        <f>C30+E30+G30</f>
+        <v>1000000</v>
+      </c>
+      <c r="J30" s="377"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B31" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="365">
+        <v>0.19</v>
+      </c>
+      <c r="D31" s="364"/>
+      <c r="E31" s="365">
+        <v>0.19</v>
+      </c>
+      <c r="F31" s="364"/>
+      <c r="G31" s="386"/>
+      <c r="H31" s="387"/>
+      <c r="I31" s="385"/>
+      <c r="J31" s="385"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="424">
-        <f>C29*$I$5/1000000</f>
+      <c r="C32" s="361">
+        <f>C31*$I$5/1000000</f>
         <v>688.90198784000006</v>
       </c>
-      <c r="D30" s="432"/>
-      <c r="E30" s="424">
-        <f>E29*$I$5/1000000</f>
+      <c r="D32" s="362"/>
+      <c r="E32" s="361">
+        <f>E31*$I$5/1000000</f>
         <v>688.90198784000006</v>
       </c>
-      <c r="F30" s="432"/>
-      <c r="G30" s="368">
-        <f>G29*$I$5/1000000</f>
+      <c r="F32" s="362"/>
+      <c r="G32" s="407">
+        <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="369"/>
-      <c r="I30" s="423"/>
-      <c r="J30" s="423"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B31" s="2" t="s">
+      <c r="H32" s="408"/>
+      <c r="I32" s="376"/>
+      <c r="J32" s="376"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="433">
-        <f>C28*C29</f>
+      <c r="C33" s="370">
+        <f>C30*C31</f>
         <v>190000</v>
       </c>
-      <c r="D31" s="434"/>
-      <c r="E31" s="425">
-        <f>E28*E29</f>
+      <c r="D33" s="371"/>
+      <c r="E33" s="372">
+        <f>E30*E31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="435"/>
-      <c r="G31" s="370">
-        <f>G28*G29</f>
+      <c r="F33" s="373"/>
+      <c r="G33" s="409">
+        <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H31" s="371"/>
-      <c r="I31" s="425">
-        <f>C31+E31+G31</f>
+      <c r="H33" s="410"/>
+      <c r="I33" s="372">
+        <f>C33+E33+G33</f>
         <v>190000</v>
       </c>
-      <c r="J31" s="425"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B32" s="1" t="s">
+      <c r="J33" s="372"/>
+    </row>
+    <row r="34" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="428"/>
-      <c r="D32" s="429"/>
-      <c r="E32" s="427">
-        <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
+      <c r="C34" s="366"/>
+      <c r="D34" s="367"/>
+      <c r="E34" s="374">
+        <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>0.19</v>
       </c>
-      <c r="F32" s="409"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="427">
-        <f>IF(I31=0,"",I31/I28)</f>
+      <c r="F34" s="375"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="374">
+        <f>IF(I33=0,"",I33/I30)</f>
         <v>0.19</v>
       </c>
-      <c r="J32" s="427"/>
-    </row>
-    <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="1" t="s">
+      <c r="J34" s="374"/>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="430"/>
-      <c r="D33" s="431"/>
-      <c r="E33" s="424">
-        <f>IF(E32="-","-",E32*$I$5/1000000)</f>
+      <c r="C35" s="368"/>
+      <c r="D35" s="369"/>
+      <c r="E35" s="361">
+        <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>688.90198784000006</v>
       </c>
-      <c r="F33" s="432"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="424">
-        <f>IF(I32="","",I32*$I$5/1000000)</f>
+      <c r="F35" s="362"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="361">
+        <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>688.90198784000006</v>
       </c>
-      <c r="J33" s="424"/>
-    </row>
-    <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
-    <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="143" t="s">
+      <c r="J35" s="361"/>
+    </row>
+    <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="37" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B37" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C35" s="364">
-        <f>E29</f>
+      <c r="C37" s="434">
+        <f>E31</f>
         <v>0.19</v>
       </c>
-      <c r="D35" s="365"/>
-      <c r="G35" s="366" t="s">
-        <v>317</v>
-      </c>
-      <c r="H35" s="367"/>
-      <c r="I35" s="362">
+      <c r="D37" s="435"/>
+      <c r="G37" s="436" t="s">
+        <v>316</v>
+      </c>
+      <c r="H37" s="437"/>
+      <c r="I37" s="432">
         <f ca="1">'FCFF Model'!C31</f>
         <v>0.25092859108153331</v>
       </c>
-      <c r="J35" s="363"/>
-    </row>
-    <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="143" t="s">
-        <v>318</v>
-      </c>
-      <c r="C36" s="364">
-        <f>E32</f>
+      <c r="J37" s="433"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B38" s="143" t="s">
+        <v>317</v>
+      </c>
+      <c r="C38" s="434">
+        <f>E34</f>
         <v>0.19</v>
       </c>
-      <c r="D36" s="365"/>
-      <c r="G36" s="361" t="s">
-        <v>315</v>
-      </c>
-      <c r="H36" s="361"/>
-      <c r="I36" s="362">
+      <c r="D38" s="435"/>
+      <c r="G38" s="431" t="s">
+        <v>314</v>
+      </c>
+      <c r="H38" s="431"/>
+      <c r="I38" s="432">
         <f ca="1">'FCFF Model'!C32</f>
         <v>0.14145801710745318</v>
       </c>
-      <c r="J36" s="363"/>
-    </row>
-    <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
-    <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="21" t="s">
+      <c r="J38" s="433"/>
+    </row>
+    <row r="39" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="40" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B40" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="G38" s="319" t="s">
+      <c r="G40" s="319" t="s">
         <v>134</v>
       </c>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="324"/>
-    </row>
-    <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="3" t="s">
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="130"/>
+      <c r="K40" s="324"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B41" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="F39" s="208">
+      <c r="F41" s="208">
         <f>'Qualitative Analysis'!E8</f>
         <v>0.18</v>
-      </c>
-      <c r="G39" s="331"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114"/>
-    </row>
-    <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="F40" s="208">
-        <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
-        <v>0.8</v>
-      </c>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-    </row>
-    <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F41" s="329">
-        <f>'Qualitative Analysis'!E64</f>
-        <v>0.36766156462585037</v>
       </c>
       <c r="G41" s="331"/>
       <c r="H41" s="114"/>
@@ -5254,10 +5472,11 @@
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F42" s="332">
-        <v>0.5</v>
+        <v>297</v>
+      </c>
+      <c r="F42" s="208">
+        <f>80%-(5%*IF(LEFT(D20,2)="St",2,IF(LEFT(D20,2)="Sl",3,IF(LEFT(D20,2)="Cy",4,IF(LEFT(D20,2)="Tu",5,IF(LEFT(D20,2)="Fa",6,0))))))</f>
+        <v>0.8</v>
       </c>
       <c r="G42" s="73"/>
       <c r="H42" s="73"/>
@@ -5265,141 +5484,172 @@
       <c r="J42" s="73"/>
     </row>
     <row r="43" spans="2:11" ht="15.75" customHeight="1">
-      <c r="G43" s="114"/>
+      <c r="B43" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F43" s="329">
+        <f>'Qualitative Analysis'!E64</f>
+        <v>0.36766156462585037</v>
+      </c>
+      <c r="G43" s="331"/>
       <c r="H43" s="114"/>
       <c r="I43" s="114"/>
       <c r="J43" s="114"/>
     </row>
     <row r="44" spans="2:11" ht="15.75" customHeight="1">
-      <c r="E44" s="258" t="s">
+      <c r="B44" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F44" s="332">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+    </row>
+    <row r="45" spans="2:11" ht="15.75" customHeight="1">
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+    </row>
+    <row r="46" spans="2:11" ht="15.75" customHeight="1">
+      <c r="E46" s="258" t="s">
+        <v>318</v>
+      </c>
+      <c r="F46" s="258" t="s">
         <v>319</v>
       </c>
-      <c r="F44" s="258" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B45" s="3" t="s">
+    </row>
+    <row r="47" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B47" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E45" s="329">
-        <f ca="1">I35/C29-1</f>
+      <c r="E47" s="329">
+        <f ca="1">I37/C31-1</f>
         <v>0.32067679516596481</v>
       </c>
-      <c r="F45" s="332">
-        <f ca="1">I35/C36-1</f>
+      <c r="F47" s="332">
+        <f ca="1">I37/C38-1</f>
         <v>0.32067679516596481</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B46" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E46" s="329">
-        <f ca="1">I36/C29-1</f>
-        <v>-0.25548412048708857</v>
-      </c>
-      <c r="F46" s="332">
-        <f ca="1">I36/C36-1</f>
-        <v>-0.25548412048708857</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="48" spans="2:11" ht="15.75" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E48" s="353">
-        <f ca="1">IF(E45&lt;=0,0,AVERAGE(F39:F41,1-F42,E45/J25))</f>
-        <v>0.69020910809113489</v>
-      </c>
-      <c r="F48" s="329">
-        <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
-        <v>0.69020910809113489</v>
-      </c>
-      <c r="G48" s="73"/>
-    </row>
-    <row r="49" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B49" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D49" s="326"/>
-      <c r="E49" s="328">
-        <f ca="1">IF(E46&gt;=0,100,E45/ABS(E46))</f>
-        <v>1.2551730986434082</v>
-      </c>
-      <c r="F49" s="328">
-        <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>1.2551730986434082</v>
-      </c>
-      <c r="G49" s="73"/>
-    </row>
+        <v>300</v>
+      </c>
+      <c r="E48" s="329">
+        <f ca="1">I38/C31-1</f>
+        <v>-0.25548412048708857</v>
+      </c>
+      <c r="F48" s="332">
+        <f ca="1">I38/C38-1</f>
+        <v>-0.25548412048708857</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="50" spans="2:9" ht="15.75" customHeight="1">
       <c r="B50" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E50" s="358">
-        <f ca="1">MAX(J25*2/E45,1)</f>
-        <v>1.247361848533449</v>
-      </c>
-      <c r="F50" s="358">
-        <f ca="1">MAX(J25*2/F45,1)</f>
-        <v>1.247361848533449</v>
-      </c>
-      <c r="G50" s="330"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
+        <v>302</v>
+      </c>
+      <c r="E50" s="353">
+        <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F43,1-F44,E47/J27))</f>
+        <v>0.69020910809113489</v>
+      </c>
+      <c r="F50" s="329">
+        <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F43,1-F44,F47/J27))</f>
+        <v>0.69020910809113489</v>
+      </c>
+      <c r="G50" s="73"/>
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1">
       <c r="B51" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E51" s="327">
-        <f ca="1">MIN(MAX(E48-ABS((1-E48)/E49),0)/E50,H51)</f>
+        <v>301</v>
+      </c>
+      <c r="D51" s="326"/>
+      <c r="E51" s="328">
+        <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
+        <v>1.2551730986434082</v>
+      </c>
+      <c r="F51" s="328">
+        <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
+        <v>1.2551730986434082</v>
+      </c>
+      <c r="G51" s="73"/>
+    </row>
+    <row r="52" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B52" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E52" s="358">
+        <f ca="1">MAX(J27*2/E47,1)</f>
+        <v>1.247361848533449</v>
+      </c>
+      <c r="F52" s="358">
+        <f ca="1">MAX(J27*2/F47,1)</f>
+        <v>1.247361848533449</v>
+      </c>
+      <c r="G52" s="330"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+    </row>
+    <row r="53" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B53" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E53" s="327">
+        <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
         <v>0.35546847805694248</v>
       </c>
-      <c r="F51" s="327">
-        <f ca="1">MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
+      <c r="F53" s="327">
+        <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
         <v>0.35546847805694248</v>
       </c>
-      <c r="G51" s="330" t="s">
+      <c r="G53" s="330" t="s">
         <v>304</v>
       </c>
-      <c r="H51" s="77">
+      <c r="H53" s="77">
         <v>0.4</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="53" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B53" s="21" t="s">
+    <row r="54" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="55" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B55" s="21" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B54" s="3" t="s">
+    <row r="56" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B56" s="460" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B55" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="57" spans="2:9" ht="15.75" customHeight="1">
       <c r="B57" s="3" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.75" customHeight="1">
       <c r="B58" s="3" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="60" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="61" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="62" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="60" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B60" s="460" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B61" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B62" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
     <row r="63" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="64" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
@@ -6303,46 +6553,23 @@
     <row r="963" ht="15.75" customHeight="1"/>
     <row r="964" ht="15.75" customHeight="1"/>
     <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
+  <mergeCells count="56">
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C21:J21"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="I3:J3"/>
@@ -6350,70 +6577,97 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="lessThan">
       <formula>$B$18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:D36 I35:J36">
+  <conditionalFormatting sqref="C37:D38 I37:J38">
     <cfRule type="containsBlanks" priority="2">
-      <formula>LEN(TRIM(C35))=0</formula>
+      <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:E26 I26 C28:G29 I28:I29">
+  <conditionalFormatting sqref="C28:E28 I28 C30:G31 I30:I31">
     <cfRule type="containsBlanks" priority="26">
-      <formula>LEN(TRIM(C26))=0</formula>
+      <formula>LEN(TRIM(C28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:F49">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="E51:F51">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50:F50">
+  <conditionalFormatting sqref="E52:F52">
     <cfRule type="containsBlanks" priority="1">
-      <formula>LEN(TRIM(E50))=0</formula>
+      <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="13" priority="10">
-      <formula>LEN(TRIM(E26))=0</formula>
+  <conditionalFormatting sqref="E28:H28">
+    <cfRule type="containsBlanks" dxfId="14" priority="10">
+      <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="11" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
+  <conditionalFormatting sqref="K40">
     <cfRule type="containsBlanks" priority="11">
-      <formula>LEN(TRIM(K38))=0</formula>
+      <formula>LEN(TRIM(K40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -6443,10 +6697,10 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N941"/>
+  <dimension ref="A1:N947"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:E35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -7587,15 +7841,15 @@
         <v>77</v>
       </c>
       <c r="C34" s="140">
-        <f>IF(D7="","",C30-D30+C33+IF($C$49="Yes",C51,0))</f>
+        <f>IF(D7="","",C30-D30+C33+IF($C$55="Yes",C57,0))</f>
         <v>-147408.57699999999</v>
       </c>
       <c r="D34" s="140">
-        <f>IF(E7="","",D30-E30+D33+IF($C$49="Yes",D51,0))</f>
+        <f>IF(E7="","",D30-E30+D33+IF($C$55="Yes",D57,0))</f>
         <v>25758.3367</v>
       </c>
       <c r="E34" s="140">
-        <f t="shared" ref="E34:F34" si="11">IF(F7="","",E30-F30+E33+IF($C$49="Yes",E51,0))</f>
+        <f t="shared" ref="E34:F34" si="11">IF(F7="","",E30-F30+E33+IF($C$55="Yes",E57,0))</f>
         <v>24602.708699999999</v>
       </c>
       <c r="F34" s="140" t="str">
@@ -7603,31 +7857,31 @@
         <v/>
       </c>
       <c r="G34" s="140" t="str">
-        <f t="shared" ref="G34" si="12">IF(H7="","",G30-H30+G33+IF($C$49="Yes",G51,0))</f>
+        <f t="shared" ref="G34" si="12">IF(H7="","",G30-H30+G33+IF($C$55="Yes",G57,0))</f>
         <v/>
       </c>
       <c r="H34" s="140" t="str">
-        <f t="shared" ref="H34" si="13">IF(I7="","",H30-I30+H33+IF($C$49="Yes",H51,0))</f>
+        <f t="shared" ref="H34" si="13">IF(I7="","",H30-I30+H33+IF($C$55="Yes",H57,0))</f>
         <v/>
       </c>
       <c r="I34" s="140" t="str">
-        <f t="shared" ref="I34" si="14">IF(J7="","",I30-J30+I33+IF($C$49="Yes",I51,0))</f>
+        <f t="shared" ref="I34" si="14">IF(J7="","",I30-J30+I33+IF($C$55="Yes",I57,0))</f>
         <v/>
       </c>
       <c r="J34" s="140" t="str">
-        <f t="shared" ref="J34" si="15">IF(K7="","",J30-K30+J33+IF($C$49="Yes",J51,0))</f>
+        <f t="shared" ref="J34" si="15">IF(K7="","",J30-K30+J33+IF($C$55="Yes",J57,0))</f>
         <v/>
       </c>
       <c r="K34" s="140" t="str">
-        <f t="shared" ref="K34" si="16">IF(L7="","",K30-L30+K33+IF($C$49="Yes",K51,0))</f>
+        <f t="shared" ref="K34" si="16">IF(L7="","",K30-L30+K33+IF($C$55="Yes",K57,0))</f>
         <v/>
       </c>
       <c r="L34" s="140" t="str">
-        <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$49="Yes",L51,0))</f>
+        <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$55="Yes",L57,0))</f>
         <v/>
       </c>
       <c r="M34" s="318" t="str">
-        <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$49="Yes",M51,0))</f>
+        <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$55="Yes",M57,0))</f>
         <v/>
       </c>
       <c r="N34" s="6"/>
@@ -8129,181 +8383,436 @@
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="9"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
+      <c r="B47" s="462" t="s">
+        <v>348</v>
+      </c>
+      <c r="C47" s="461"/>
+      <c r="D47" s="461"/>
+      <c r="E47" s="461"/>
+      <c r="F47" s="461"/>
+      <c r="G47" s="461"/>
+      <c r="H47" s="461"/>
+      <c r="I47" s="461"/>
+      <c r="J47" s="461"/>
+      <c r="K47" s="461"/>
+      <c r="L47" s="461"/>
+      <c r="M47" s="461"/>
+      <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
       <c r="A48" s="9"/>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="165" t="s">
+        <v>349</v>
+      </c>
+      <c r="C48" s="463">
+        <f>C13</f>
+        <v>1</v>
+      </c>
+      <c r="D48" s="463">
+        <f>D13</f>
+        <v>0.98485457363292761</v>
+      </c>
+      <c r="E48" s="463">
+        <f t="shared" ref="E48:M48" si="27">E13</f>
+        <v>0.95883452740343134</v>
+      </c>
+      <c r="F48" s="463">
+        <f t="shared" si="27"/>
+        <v>0.97471707831427756</v>
+      </c>
+      <c r="G48" s="463" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="H48" s="463" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="I48" s="463" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="J48" s="463" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="K48" s="463" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L48" s="463" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="M48" s="463" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A49" s="9"/>
+      <c r="B49" s="139" t="s">
+        <v>350</v>
+      </c>
+      <c r="C49" s="464">
+        <f>C7/(C29+C21+C22)</f>
+        <v>0.11334734145699707</v>
+      </c>
+      <c r="D49" s="464">
+        <f>IF(D7="","",D7/(D29+D21+D22))</f>
+        <v>0.22681712647079635</v>
+      </c>
+      <c r="E49" s="464">
+        <f t="shared" ref="E49:M49" si="28">IF(E7="","",E7/(E29+E21+E22))</f>
+        <v>0.34805892411526212</v>
+      </c>
+      <c r="F49" s="464">
+        <f t="shared" si="28"/>
+        <v>0.37877084031952363</v>
+      </c>
+      <c r="G49" s="464" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="H49" s="464" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="I49" s="464" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="J49" s="464" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K49" s="464" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="L49" s="464" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="M49" s="464" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A50" s="9"/>
+      <c r="B50" s="139" t="s">
+        <v>351</v>
+      </c>
+      <c r="C50" s="465">
+        <f>(C29+C21+C22)/C29</f>
+        <v>2.4535011375454272</v>
+      </c>
+      <c r="D50" s="465">
+        <f>IF(D29="","",(D29+D21+D22)/D29)</f>
+        <v>2.4736188416337268</v>
+      </c>
+      <c r="E50" s="465">
+        <f t="shared" ref="E50:M50" si="29">IF(E29="","",(E29+E21+E22)/E29)</f>
+        <v>3.2857318700168356</v>
+      </c>
+      <c r="F50" s="465">
+        <f t="shared" si="29"/>
+        <v>3.6380825223541007</v>
+      </c>
+      <c r="G50" s="465" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="H50" s="465" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="I50" s="465" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="J50" s="465" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="K50" s="465" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="L50" s="465" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="M50" s="465" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A51" s="9"/>
+      <c r="B51" s="139" t="s">
+        <v>352</v>
+      </c>
+      <c r="C51" s="466">
+        <f>C48*C49*C50</f>
+        <v>0.27809783120249226</v>
+      </c>
+      <c r="D51" s="466">
+        <f>IF(D48="","",D48*D49*D50)</f>
+        <v>0.5525616380895394</v>
+      </c>
+      <c r="E51" s="466">
+        <f t="shared" ref="E51:M51" si="30">IF(E48="","",E48*E49*E50)</f>
+        <v>1.0965503001810615</v>
+      </c>
+      <c r="F51" s="466">
+        <f t="shared" si="30"/>
+        <v>1.3431597188277973</v>
+      </c>
+      <c r="G51" s="466" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="H51" s="466" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="I51" s="466" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="J51" s="466" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="K51" s="466" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="L51" s="466" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="M51" s="466" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="N51" s="6"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A52" s="9"/>
+      <c r="B52" s="467" t="s">
+        <v>353</v>
+      </c>
+      <c r="C52" s="468">
+        <f>C35*C51</f>
+        <v>-6.7682725609350139E-2</v>
+      </c>
+      <c r="D52" s="468">
+        <f>IF(D35="","",D35*D51)</f>
+        <v>1.1104507100057812E-2</v>
+      </c>
+      <c r="E52" s="468">
+        <f t="shared" ref="E52:M52" si="31">IF(E35="","",E35*E51)</f>
+        <v>2.4422179945840346E-2</v>
+      </c>
+      <c r="F52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="G52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="I52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="J52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="K52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="L52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="M52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="N52" s="6"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A53" s="9"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A54" s="9"/>
+      <c r="B54" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-    </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1">
-      <c r="A49" s="9"/>
-      <c r="B49" s="5" t="s">
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
+      <c r="A55" s="9"/>
+      <c r="B55" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="317" t="s">
+      <c r="C55" s="317" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-    </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1">
-      <c r="A50" s="9"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="314"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="314"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A51" s="9"/>
-      <c r="B51" s="315" t="s">
+      <c r="D55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
+      <c r="A56" s="9"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="314"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="314"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A57" s="9"/>
+      <c r="B57" s="315" t="s">
         <v>276</v>
       </c>
-      <c r="C51" s="162"/>
-      <c r="D51" s="162"/>
-      <c r="E51" s="162"/>
-      <c r="F51" s="162"/>
-      <c r="G51" s="162"/>
-      <c r="H51" s="162"/>
-      <c r="I51" s="162"/>
-      <c r="J51" s="162"/>
-      <c r="K51" s="162"/>
-      <c r="L51" s="162"/>
-      <c r="M51" s="163"/>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A52" s="9"/>
-      <c r="B52" s="316" t="s">
+      <c r="C57" s="162"/>
+      <c r="D57" s="162"/>
+      <c r="E57" s="162"/>
+      <c r="F57" s="162"/>
+      <c r="G57" s="162"/>
+      <c r="H57" s="162"/>
+      <c r="I57" s="162"/>
+      <c r="J57" s="162"/>
+      <c r="K57" s="162"/>
+      <c r="L57" s="162"/>
+      <c r="M57" s="163"/>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A58" s="9"/>
+      <c r="B58" s="316" t="s">
         <v>277</v>
       </c>
-      <c r="C52" s="320" t="str">
-        <f>IF(C51="","",C51/C7)</f>
-        <v/>
-      </c>
-      <c r="D52" s="320" t="str">
-        <f t="shared" ref="D52:M52" si="27">IF(D51="","",D51/D7)</f>
-        <v/>
-      </c>
-      <c r="E52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="F52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="G52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="H52" s="320" t="str">
-        <f>IF(H51="","",H51/H7)</f>
-        <v/>
-      </c>
-      <c r="I52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="J52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="K52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="L52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="M52" s="321" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A53" s="9"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A54" s="9"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A55" s="9"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A56" s="9"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A57" s="9"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A58" s="9"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" customHeight="1">
+      <c r="C58" s="320" t="str">
+        <f>IF(C57="","",C57/C7)</f>
+        <v/>
+      </c>
+      <c r="D58" s="320" t="str">
+        <f t="shared" ref="D58:M58" si="32">IF(D57="","",D57/D7)</f>
+        <v/>
+      </c>
+      <c r="E58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H58" s="320" t="str">
+        <f>IF(H57="","",H57/H7)</f>
+        <v/>
+      </c>
+      <c r="I58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M58" s="321" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1">
       <c r="A59" s="9"/>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B59" s="53"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1">
       <c r="A60" s="9"/>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B60" s="53"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1">
       <c r="A61" s="9"/>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B61" s="53"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1">
       <c r="A62" s="9"/>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B62" s="53"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1">
       <c r="A63" s="9"/>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B63" s="53"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1">
       <c r="A64" s="9"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
     </row>
     <row r="65" spans="1:1" ht="15.75" customHeight="1">
       <c r="A65" s="9"/>
@@ -8887,12 +9396,24 @@
     <row r="258" spans="1:1" ht="15.75" customHeight="1">
       <c r="A258" s="9"/>
     </row>
-    <row r="259" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="260" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="261" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="262" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="263" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="264" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="259" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A259" s="9"/>
+    </row>
+    <row r="260" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A260" s="9"/>
+    </row>
+    <row r="261" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A261" s="9"/>
+    </row>
+    <row r="262" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A262" s="9"/>
+    </row>
+    <row r="263" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A263" s="9"/>
+    </row>
+    <row r="264" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A264" s="9"/>
+    </row>
     <row r="265" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="266" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="267" spans="1:1" ht="15.75" customHeight="1"/>
@@ -9570,38 +10091,49 @@
     <row r="939" ht="15.75" customHeight="1"/>
     <row r="940" ht="15.75" customHeight="1"/>
     <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
-  <conditionalFormatting sqref="B51:M52">
-    <cfRule type="expression" dxfId="10" priority="1">
-      <formula>$C$49="No"</formula>
+  <conditionalFormatting sqref="B57:M58">
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>$C$55="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:M35 D42:M46">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:M40">
-    <cfRule type="containsBlanks" dxfId="8" priority="5">
+    <cfRule type="containsBlanks" dxfId="9" priority="6">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:M18">
-    <cfRule type="containsBlanks" dxfId="7" priority="4">
+    <cfRule type="containsBlanks" dxfId="8" priority="5">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D48:M52">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(D48))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="D51" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="D57" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" sqref="C49" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C55" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" sqref="C50" xr:uid="{536BB552-B5C0-4BE0-BE6E-3B4056ED999A}"/>
+    <dataValidation allowBlank="1" sqref="C56" xr:uid="{536BB552-B5C0-4BE0-BE6E-3B4056ED999A}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -9770,7 +10302,7 @@
         <v>44926</v>
       </c>
       <c r="E9" s="270" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F9" s="130"/>
       <c r="G9" s="130"/>
@@ -10645,7 +11177,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>3098</v>
       </c>
-      <c r="E53" s="434"/>
+      <c r="E53" s="371"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10664,7 +11196,7 @@
       <c r="D54" s="448">
         <v>0</v>
       </c>
-      <c r="E54" s="398"/>
+      <c r="E54" s="364"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -10678,7 +11210,7 @@
       <c r="D55" s="448">
         <v>0</v>
       </c>
-      <c r="E55" s="398"/>
+      <c r="E55" s="364"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -10913,7 +11445,7 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="B4" s="272" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C4" s="273">
         <v>554225</v>
@@ -10940,7 +11472,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="B5" s="272" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C5" s="273">
         <v>51454</v>
@@ -12166,17 +12698,17 @@
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="E16:E18">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(E16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18 I18">
-    <cfRule type="containsBlanks" dxfId="5" priority="4">
+    <cfRule type="containsBlanks" dxfId="6" priority="4">
       <formula>LEN(TRIM(G18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:H11 H12 G13:H15">
-    <cfRule type="containsBlanks" dxfId="4" priority="10">
+    <cfRule type="containsBlanks" dxfId="5" priority="10">
       <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="11">
@@ -12184,12 +12716,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:J18">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:J15">
-    <cfRule type="containsBlanks" dxfId="2" priority="6">
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(I7))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="7">
@@ -12691,7 +13223,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="346" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G24" s="347">
         <f ca="1">MIN(G22,G23)+ABS(G22-G23)*'Qualitative Analysis'!$E$64</f>
@@ -12710,7 +13242,7 @@
     </row>
     <row r="26" spans="2:9" ht="15.75" customHeight="1">
       <c r="B26" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C26" s="449" t="s">
         <v>145</v>
@@ -12727,7 +13259,7 @@
     </row>
     <row r="27" spans="2:9" ht="15.75" customHeight="1">
       <c r="B27" s="240" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C27" s="238">
         <f ca="1">MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$8</f>
@@ -12766,7 +13298,7 @@
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1">
       <c r="B30" s="333" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C30" s="335">
         <f ca="1">G24</f>
@@ -12810,7 +13342,7 @@
     </row>
     <row r="32" spans="2:9" ht="15.75" customHeight="1">
       <c r="B32" s="333" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C32" s="350">
         <f ca="1">IF(Asset_Model!D7&gt;C27,Asset_Model!D7,C27)/(1+Dashboard!C16)</f>
@@ -13721,12 +14253,12 @@
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="E4:F12">
-    <cfRule type="containsBlanks" dxfId="1" priority="5">
+    <cfRule type="containsBlanks" dxfId="2" priority="5">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:G23">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13783,7 +14315,7 @@
         <v>170</v>
       </c>
       <c r="G3" s="78" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14">
@@ -13799,7 +14331,7 @@
         <v>170</v>
       </c>
       <c r="G4" s="76" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14">
@@ -14467,7 +14999,7 @@
         <v>3.1020408163265305</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F54" s="53"/>
       <c r="G54" s="274"/>
@@ -14573,7 +15105,7 @@
         <v>2</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F61" s="53"/>
       <c r="G61" s="274"/>

--- a/financial_models/Opportunities/9982.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/9982.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2D39B3-7DEE-4028-A7AF-9FA082957681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D60E5A51-61F7-4E98-A4D2-4A16C2A58757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35250" yWindow="4110" windowWidth="8625" windowHeight="4635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4065,201 +4065,247 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4297,52 +4343,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4352,14 +4352,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4409,6 +4401,14 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4789,33 +4789,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="411" t="s">
+      <c r="C3" s="385" t="s">
         <v>328</v>
       </c>
-      <c r="D3" s="412"/>
+      <c r="D3" s="386"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="421" t="s">
+      <c r="I3" s="397" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="422"/>
+      <c r="J3" s="398"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="413" t="s">
+      <c r="C4" s="387" t="s">
         <v>329</v>
       </c>
-      <c r="D4" s="414"/>
+      <c r="D4" s="388"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4826,10 +4826,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="415">
+      <c r="C5" s="389">
         <v>45058</v>
       </c>
-      <c r="D5" s="414"/>
+      <c r="D5" s="388"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4837,10 +4837,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="383">
+      <c r="I5" s="399">
         <v>3625799936</v>
       </c>
-      <c r="J5" s="384"/>
+      <c r="J5" s="400"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4863,11 +4863,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="423">
+      <c r="I6" s="401">
         <f>I4*I5/1000000</f>
-        <v>1269.0299775999999</v>
-      </c>
-      <c r="J6" s="424"/>
+        <v>1359.674976</v>
+      </c>
+      <c r="J6" s="402"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4876,11 +4876,11 @@
       </c>
       <c r="C7" s="142">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>0.37626462769388969</v>
+        <v>0.35328019260184867</v>
       </c>
       <c r="D7" s="142">
         <f>(Data!C40*Exchange_Rate)/I4</f>
-        <v>5.4772915362618019E-3</v>
+        <v>5.1427066655898362E-3</v>
       </c>
       <c r="E7" s="150"/>
       <c r="F7" s="6"/>
@@ -4907,11 +4907,11 @@
       </c>
       <c r="I9" s="119">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>3.8550575288612374</v>
+        <v>4.1058678528016337</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.2593995011782339</v>
+        <v>0.24355386871928947</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.5371699769213597</v>
+        <v>0.57211829479056153</v>
       </c>
       <c r="J10" s="127" t="str">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
@@ -4941,36 +4941,36 @@
       <c r="B11" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="381">
+      <c r="C11" s="416">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="382"/>
+      <c r="D11" s="417"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="378" t="s">
+      <c r="I11" s="414" t="s">
         <v>322</v>
       </c>
-      <c r="J11" s="379"/>
+      <c r="J11" s="415"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="429">
+      <c r="C12" s="412">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="430"/>
+      <c r="D12" s="413"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="130"/>
       <c r="I12" s="132">
-        <v>1.0847139755884807</v>
+        <v>1.0911999940872192</v>
       </c>
       <c r="J12" s="133" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4989,7 +4989,7 @@
       <c r="D14" s="239"/>
       <c r="E14" s="190">
         <f ca="1">'FCFF Model'!C27</f>
-        <v>0.17682252138431648</v>
+        <v>0.17747257128176203</v>
       </c>
       <c r="F14" s="181"/>
       <c r="G14" s="182"/>
@@ -5026,58 +5026,58 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="128">
         <f>I4</f>
-        <v>0.35</v>
-      </c>
-      <c r="C16" s="404">
+        <v>0.375</v>
+      </c>
+      <c r="C16" s="433">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
         <f ca="1">I37/B16-(1+J27)</f>
-        <v>-0.48306116833847612</v>
-      </c>
-      <c r="E16" s="395" t="s">
+        <v>-0.52976095302240211</v>
+      </c>
+      <c r="E16" s="406" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="425">
+      <c r="F16" s="403">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
-        <v>0.28005419831932299</v>
-      </c>
-      <c r="G16" s="395" t="s">
+        <v>0.28172877498361187</v>
+      </c>
+      <c r="G16" s="406" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>6.9945801680676989E-2</v>
-      </c>
-      <c r="I16" s="390">
+        <v>9.3271225016388126E-2</v>
+      </c>
+      <c r="I16" s="424">
         <v>2.7E-2</v>
       </c>
       <c r="J16" s="158">
         <f>I16/B16</f>
-        <v>7.7142857142857152E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
         <f ca="1">(I37+I38)/2</f>
-        <v>0.19619330409449326</v>
-      </c>
-      <c r="C17" s="405"/>
+        <v>0.1966588498210044</v>
+      </c>
+      <c r="C17" s="434"/>
       <c r="D17" s="268">
         <f ca="1">I37/B17-(1+J27)</f>
-        <v>7.8986519135626043E-2</v>
-      </c>
-      <c r="E17" s="396"/>
-      <c r="F17" s="426"/>
-      <c r="G17" s="396"/>
+        <v>7.8048980991012318E-2</v>
+      </c>
+      <c r="E17" s="407"/>
+      <c r="F17" s="404"/>
+      <c r="G17" s="407"/>
       <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
-        <v>-8.386089422482973E-2</v>
-      </c>
-      <c r="I17" s="391"/>
+        <v>-8.5069925162607474E-2</v>
+      </c>
+      <c r="I17" s="425"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
-        <v>0.13761937556745513</v>
+        <v>0.13729359255672932</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -5085,19 +5085,19 @@
         <f>C37</f>
         <v>0.19</v>
       </c>
-      <c r="C18" s="406"/>
+      <c r="C18" s="435"/>
       <c r="D18" s="157">
         <f ca="1">I37/B18-(1+J27)</f>
-        <v>0.12067679516596486</v>
-      </c>
-      <c r="E18" s="397"/>
-      <c r="F18" s="427"/>
-      <c r="G18" s="397"/>
+        <v>0.12284022429789054</v>
+      </c>
+      <c r="E18" s="408"/>
+      <c r="F18" s="405"/>
+      <c r="G18" s="408"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
-        <v>-9.0054198319322987E-2</v>
-      </c>
-      <c r="I18" s="392"/>
+        <v>-9.1728774983611872E-2</v>
+      </c>
+      <c r="I18" s="426"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
         <v>0.14210526315789473</v>
@@ -5130,82 +5130,82 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="418" t="s">
+      <c r="C21" s="392" t="s">
         <v>336</v>
       </c>
-      <c r="D21" s="419"/>
-      <c r="E21" s="419"/>
-      <c r="F21" s="419"/>
-      <c r="G21" s="419"/>
-      <c r="H21" s="419"/>
-      <c r="I21" s="419"/>
-      <c r="J21" s="420"/>
+      <c r="D21" s="393"/>
+      <c r="E21" s="393"/>
+      <c r="F21" s="393"/>
+      <c r="G21" s="393"/>
+      <c r="H21" s="393"/>
+      <c r="I21" s="393"/>
+      <c r="J21" s="394"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="380" t="s">
+      <c r="C22" s="410" t="s">
         <v>337</v>
       </c>
-      <c r="D22" s="364"/>
-      <c r="E22" s="364"/>
-      <c r="F22" s="364"/>
-      <c r="G22" s="380" t="s">
+      <c r="D22" s="411"/>
+      <c r="E22" s="411"/>
+      <c r="F22" s="411"/>
+      <c r="G22" s="410" t="s">
         <v>338</v>
       </c>
-      <c r="H22" s="380"/>
-      <c r="I22" s="364"/>
-      <c r="J22" s="364"/>
+      <c r="H22" s="410"/>
+      <c r="I22" s="411"/>
+      <c r="J22" s="411"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="393" t="s">
+      <c r="C23" s="395" t="s">
         <v>339</v>
       </c>
-      <c r="D23" s="394"/>
-      <c r="E23" s="394"/>
-      <c r="F23" s="394"/>
-      <c r="G23" s="393" t="s">
+      <c r="D23" s="396"/>
+      <c r="E23" s="396"/>
+      <c r="F23" s="396"/>
+      <c r="G23" s="395" t="s">
         <v>340</v>
       </c>
-      <c r="H23" s="393"/>
-      <c r="I23" s="394"/>
-      <c r="J23" s="394"/>
+      <c r="H23" s="395"/>
+      <c r="I23" s="396"/>
+      <c r="J23" s="396"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="C24" s="453" t="s">
+      <c r="C24" s="436" t="s">
         <v>343</v>
       </c>
-      <c r="D24" s="454"/>
-      <c r="E24" s="454"/>
-      <c r="F24" s="454"/>
-      <c r="G24" s="454"/>
-      <c r="H24" s="454"/>
-      <c r="I24" s="454"/>
-      <c r="J24" s="455"/>
+      <c r="D24" s="437"/>
+      <c r="E24" s="437"/>
+      <c r="F24" s="437"/>
+      <c r="G24" s="437"/>
+      <c r="H24" s="437"/>
+      <c r="I24" s="437"/>
+      <c r="J24" s="438"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="456" t="s">
+      <c r="B25" s="361" t="s">
         <v>342</v>
       </c>
-      <c r="C25" s="457"/>
-      <c r="D25" s="458"/>
-      <c r="E25" s="458"/>
-      <c r="F25" s="458"/>
-      <c r="G25" s="458"/>
-      <c r="H25" s="458"/>
-      <c r="I25" s="458"/>
-      <c r="J25" s="459"/>
+      <c r="C25" s="371"/>
+      <c r="D25" s="372"/>
+      <c r="E25" s="372"/>
+      <c r="F25" s="372"/>
+      <c r="G25" s="372"/>
+      <c r="H25" s="372"/>
+      <c r="I25" s="372"/>
+      <c r="J25" s="373"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -5244,205 +5244,205 @@
       <c r="B28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="416"/>
-      <c r="D28" s="417"/>
-      <c r="E28" s="401" t="str">
+      <c r="C28" s="390"/>
+      <c r="D28" s="391"/>
+      <c r="E28" s="430" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F28" s="402"/>
-      <c r="G28" s="402"/>
-      <c r="H28" s="403"/>
-      <c r="I28" s="428" t="s">
+      <c r="F28" s="431"/>
+      <c r="G28" s="431"/>
+      <c r="H28" s="432"/>
+      <c r="I28" s="409" t="s">
         <v>32</v>
       </c>
-      <c r="J28" s="428"/>
+      <c r="J28" s="409"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="389">
+      <c r="C29" s="423">
         <f>C33/D27</f>
         <v>0.2878787878787879</v>
       </c>
-      <c r="D29" s="375"/>
-      <c r="E29" s="388">
+      <c r="D29" s="422"/>
+      <c r="E29" s="421">
         <f>E33/D27</f>
         <v>0</v>
       </c>
-      <c r="F29" s="375"/>
-      <c r="G29" s="399">
+      <c r="F29" s="422"/>
+      <c r="G29" s="428">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="400"/>
-      <c r="I29" s="398">
+      <c r="H29" s="429"/>
+      <c r="I29" s="427">
         <f>C29+E29+G29</f>
         <v>0.2878787878787879</v>
       </c>
-      <c r="J29" s="398"/>
+      <c r="J29" s="427"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="363">
+      <c r="C30" s="452">
         <v>1000000</v>
       </c>
-      <c r="D30" s="364"/>
-      <c r="E30" s="363">
+      <c r="D30" s="411"/>
+      <c r="E30" s="452">
         <v>0</v>
       </c>
-      <c r="F30" s="364"/>
-      <c r="G30" s="383"/>
-      <c r="H30" s="384"/>
-      <c r="I30" s="377">
+      <c r="F30" s="411"/>
+      <c r="G30" s="399"/>
+      <c r="H30" s="400"/>
+      <c r="I30" s="442">
         <f>C30+E30+G30</f>
         <v>1000000</v>
       </c>
-      <c r="J30" s="377"/>
+      <c r="J30" s="442"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="365">
+      <c r="C31" s="453">
         <v>0.19</v>
       </c>
-      <c r="D31" s="364"/>
-      <c r="E31" s="365">
+      <c r="D31" s="411"/>
+      <c r="E31" s="453">
         <v>0.19</v>
       </c>
-      <c r="F31" s="364"/>
-      <c r="G31" s="386"/>
-      <c r="H31" s="387"/>
-      <c r="I31" s="385"/>
-      <c r="J31" s="385"/>
+      <c r="F31" s="411"/>
+      <c r="G31" s="419"/>
+      <c r="H31" s="420"/>
+      <c r="I31" s="418"/>
+      <c r="J31" s="418"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="361">
+      <c r="C32" s="440">
         <f>C31*$I$5/1000000</f>
         <v>688.90198784000006</v>
       </c>
-      <c r="D32" s="362"/>
-      <c r="E32" s="361">
+      <c r="D32" s="448"/>
+      <c r="E32" s="440">
         <f>E31*$I$5/1000000</f>
         <v>688.90198784000006</v>
       </c>
-      <c r="F32" s="362"/>
-      <c r="G32" s="407">
+      <c r="F32" s="448"/>
+      <c r="G32" s="381">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="408"/>
-      <c r="I32" s="376"/>
-      <c r="J32" s="376"/>
+      <c r="H32" s="382"/>
+      <c r="I32" s="439"/>
+      <c r="J32" s="439"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="370">
+      <c r="C33" s="449">
         <f>C30*C31</f>
         <v>190000</v>
       </c>
-      <c r="D33" s="371"/>
-      <c r="E33" s="372">
+      <c r="D33" s="450"/>
+      <c r="E33" s="441">
         <f>E30*E31</f>
         <v>0</v>
       </c>
-      <c r="F33" s="373"/>
-      <c r="G33" s="409">
+      <c r="F33" s="451"/>
+      <c r="G33" s="383">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="410"/>
-      <c r="I33" s="372">
+      <c r="H33" s="384"/>
+      <c r="I33" s="441">
         <f>C33+E33+G33</f>
         <v>190000</v>
       </c>
-      <c r="J33" s="372"/>
+      <c r="J33" s="441"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="366"/>
-      <c r="D34" s="367"/>
-      <c r="E34" s="374">
+      <c r="C34" s="444"/>
+      <c r="D34" s="445"/>
+      <c r="E34" s="443">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>0.19</v>
       </c>
-      <c r="F34" s="375"/>
+      <c r="F34" s="422"/>
       <c r="G34" s="115"/>
       <c r="H34" s="115"/>
-      <c r="I34" s="374">
+      <c r="I34" s="443">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>0.19</v>
       </c>
-      <c r="J34" s="374"/>
+      <c r="J34" s="443"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="368"/>
-      <c r="D35" s="369"/>
-      <c r="E35" s="361">
+      <c r="C35" s="446"/>
+      <c r="D35" s="447"/>
+      <c r="E35" s="440">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>688.90198784000006</v>
       </c>
-      <c r="F35" s="362"/>
+      <c r="F35" s="448"/>
       <c r="G35" s="116"/>
       <c r="H35" s="116"/>
-      <c r="I35" s="361">
+      <c r="I35" s="440">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>688.90198784000006</v>
       </c>
-      <c r="J35" s="361"/>
+      <c r="J35" s="440"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C37" s="434">
+      <c r="C37" s="377">
         <f>E31</f>
         <v>0.19</v>
       </c>
-      <c r="D37" s="435"/>
-      <c r="G37" s="436" t="s">
+      <c r="D37" s="378"/>
+      <c r="G37" s="379" t="s">
         <v>316</v>
       </c>
-      <c r="H37" s="437"/>
-      <c r="I37" s="432">
+      <c r="H37" s="380"/>
+      <c r="I37" s="375">
         <f ca="1">'FCFF Model'!C31</f>
-        <v>0.25092859108153331</v>
-      </c>
-      <c r="J37" s="433"/>
+        <v>0.25133964261659919</v>
+      </c>
+      <c r="J37" s="376"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="143" t="s">
         <v>317</v>
       </c>
-      <c r="C38" s="434">
+      <c r="C38" s="377">
         <f>E34</f>
         <v>0.19</v>
       </c>
-      <c r="D38" s="435"/>
-      <c r="G38" s="431" t="s">
+      <c r="D38" s="378"/>
+      <c r="G38" s="374" t="s">
         <v>314</v>
       </c>
-      <c r="H38" s="431"/>
-      <c r="I38" s="432">
+      <c r="H38" s="374"/>
+      <c r="I38" s="375">
         <f ca="1">'FCFF Model'!C32</f>
-        <v>0.14145801710745318</v>
-      </c>
-      <c r="J38" s="433"/>
+        <v>0.14197805702540961</v>
+      </c>
+      <c r="J38" s="376"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
@@ -5528,11 +5528,11 @@
       </c>
       <c r="E47" s="329">
         <f ca="1">I37/C31-1</f>
-        <v>0.32067679516596481</v>
+        <v>0.3228402242978905</v>
       </c>
       <c r="F47" s="332">
         <f ca="1">I37/C38-1</f>
-        <v>0.32067679516596481</v>
+        <v>0.3228402242978905</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="15.75" customHeight="1">
@@ -5541,11 +5541,11 @@
       </c>
       <c r="E48" s="329">
         <f ca="1">I38/C31-1</f>
-        <v>-0.25548412048708857</v>
+        <v>-0.25274706828731786</v>
       </c>
       <c r="F48" s="332">
         <f ca="1">I38/C38-1</f>
-        <v>-0.25548412048708857</v>
+        <v>-0.25274706828731786</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.75" customHeight="1"/>
@@ -5555,11 +5555,11 @@
       </c>
       <c r="E50" s="353">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F43,1-F44,E47/J27))</f>
-        <v>0.69020910809113489</v>
+        <v>0.69237253722306058</v>
       </c>
       <c r="F50" s="329">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F43,1-F44,F47/J27))</f>
-        <v>0.69020910809113489</v>
+        <v>0.69237253722306058</v>
       </c>
       <c r="G50" s="73"/>
     </row>
@@ -5570,11 +5570,11 @@
       <c r="D51" s="326"/>
       <c r="E51" s="328">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>1.2551730986434082</v>
+        <v>1.2773252979175693</v>
       </c>
       <c r="F51" s="328">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>1.2551730986434082</v>
+        <v>1.2773252979175693</v>
       </c>
       <c r="G51" s="73"/>
     </row>
@@ -5584,11 +5584,11 @@
       </c>
       <c r="E52" s="358">
         <f ca="1">MAX(J27*2/E47,1)</f>
-        <v>1.247361848533449</v>
+        <v>1.2390029800961631</v>
       </c>
       <c r="F52" s="358">
         <f ca="1">MAX(J27*2/F47,1)</f>
-        <v>1.247361848533449</v>
+        <v>1.2390029800961631</v>
       </c>
       <c r="G52" s="330"/>
       <c r="H52" s="84"/>
@@ -5600,11 +5600,11 @@
       </c>
       <c r="E53" s="327">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.35546847805694248</v>
+        <v>0.36443441468313742</v>
       </c>
       <c r="F53" s="327">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
-        <v>0.35546847805694248</v>
+        <v>0.36443441468313742</v>
       </c>
       <c r="G53" s="330" t="s">
         <v>304</v>
@@ -5620,7 +5620,7 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B56" s="460" t="s">
+      <c r="B56" s="362" t="s">
         <v>309</v>
       </c>
     </row>
@@ -5636,7 +5636,7 @@
     </row>
     <row r="59" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="60" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B60" s="460" t="s">
+      <c r="B60" s="362" t="s">
         <v>310</v>
       </c>
     </row>
@@ -6557,15 +6557,30 @@
     <row r="967" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6582,37 +6597,22 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I30:J30"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -8383,20 +8383,20 @@
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="9"/>
-      <c r="B47" s="462" t="s">
+      <c r="B47" s="364" t="s">
         <v>348</v>
       </c>
-      <c r="C47" s="461"/>
-      <c r="D47" s="461"/>
-      <c r="E47" s="461"/>
-      <c r="F47" s="461"/>
-      <c r="G47" s="461"/>
-      <c r="H47" s="461"/>
-      <c r="I47" s="461"/>
-      <c r="J47" s="461"/>
-      <c r="K47" s="461"/>
-      <c r="L47" s="461"/>
-      <c r="M47" s="461"/>
+      <c r="C47" s="363"/>
+      <c r="D47" s="363"/>
+      <c r="E47" s="363"/>
+      <c r="F47" s="363"/>
+      <c r="G47" s="363"/>
+      <c r="H47" s="363"/>
+      <c r="I47" s="363"/>
+      <c r="J47" s="363"/>
+      <c r="K47" s="363"/>
+      <c r="L47" s="363"/>
+      <c r="M47" s="363"/>
       <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
@@ -8404,47 +8404,47 @@
       <c r="B48" s="165" t="s">
         <v>349</v>
       </c>
-      <c r="C48" s="463">
+      <c r="C48" s="365">
         <f>C13</f>
         <v>1</v>
       </c>
-      <c r="D48" s="463">
+      <c r="D48" s="365">
         <f>D13</f>
         <v>0.98485457363292761</v>
       </c>
-      <c r="E48" s="463">
+      <c r="E48" s="365">
         <f t="shared" ref="E48:M48" si="27">E13</f>
         <v>0.95883452740343134</v>
       </c>
-      <c r="F48" s="463">
+      <c r="F48" s="365">
         <f t="shared" si="27"/>
         <v>0.97471707831427756</v>
       </c>
-      <c r="G48" s="463" t="str">
+      <c r="G48" s="365" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H48" s="463" t="str">
+      <c r="H48" s="365" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I48" s="463" t="str">
+      <c r="I48" s="365" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="J48" s="463" t="str">
+      <c r="J48" s="365" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="K48" s="463" t="str">
+      <c r="K48" s="365" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="L48" s="463" t="str">
+      <c r="L48" s="365" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="M48" s="463" t="str">
+      <c r="M48" s="365" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
@@ -8455,47 +8455,47 @@
       <c r="B49" s="139" t="s">
         <v>350</v>
       </c>
-      <c r="C49" s="464">
+      <c r="C49" s="366">
         <f>C7/(C29+C21+C22)</f>
         <v>0.11334734145699707</v>
       </c>
-      <c r="D49" s="464">
+      <c r="D49" s="366">
         <f>IF(D7="","",D7/(D29+D21+D22))</f>
         <v>0.22681712647079635</v>
       </c>
-      <c r="E49" s="464">
+      <c r="E49" s="366">
         <f t="shared" ref="E49:M49" si="28">IF(E7="","",E7/(E29+E21+E22))</f>
         <v>0.34805892411526212</v>
       </c>
-      <c r="F49" s="464">
+      <c r="F49" s="366">
         <f t="shared" si="28"/>
         <v>0.37877084031952363</v>
       </c>
-      <c r="G49" s="464" t="str">
+      <c r="G49" s="366" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="H49" s="464" t="str">
+      <c r="H49" s="366" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I49" s="464" t="str">
+      <c r="I49" s="366" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J49" s="464" t="str">
+      <c r="J49" s="366" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="K49" s="464" t="str">
+      <c r="K49" s="366" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="L49" s="464" t="str">
+      <c r="L49" s="366" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="M49" s="464" t="str">
+      <c r="M49" s="366" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -8506,47 +8506,47 @@
       <c r="B50" s="139" t="s">
         <v>351</v>
       </c>
-      <c r="C50" s="465">
+      <c r="C50" s="367">
         <f>(C29+C21+C22)/C29</f>
         <v>2.4535011375454272</v>
       </c>
-      <c r="D50" s="465">
+      <c r="D50" s="367">
         <f>IF(D29="","",(D29+D21+D22)/D29)</f>
         <v>2.4736188416337268</v>
       </c>
-      <c r="E50" s="465">
+      <c r="E50" s="367">
         <f t="shared" ref="E50:M50" si="29">IF(E29="","",(E29+E21+E22)/E29)</f>
         <v>3.2857318700168356</v>
       </c>
-      <c r="F50" s="465">
+      <c r="F50" s="367">
         <f t="shared" si="29"/>
         <v>3.6380825223541007</v>
       </c>
-      <c r="G50" s="465" t="str">
+      <c r="G50" s="367" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="H50" s="465" t="str">
+      <c r="H50" s="367" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="I50" s="465" t="str">
+      <c r="I50" s="367" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="J50" s="465" t="str">
+      <c r="J50" s="367" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="K50" s="465" t="str">
+      <c r="K50" s="367" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="L50" s="465" t="str">
+      <c r="L50" s="367" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="M50" s="465" t="str">
+      <c r="M50" s="367" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
@@ -8557,47 +8557,47 @@
       <c r="B51" s="139" t="s">
         <v>352</v>
       </c>
-      <c r="C51" s="466">
+      <c r="C51" s="368">
         <f>C48*C49*C50</f>
         <v>0.27809783120249226</v>
       </c>
-      <c r="D51" s="466">
+      <c r="D51" s="368">
         <f>IF(D48="","",D48*D49*D50)</f>
         <v>0.5525616380895394</v>
       </c>
-      <c r="E51" s="466">
+      <c r="E51" s="368">
         <f t="shared" ref="E51:M51" si="30">IF(E48="","",E48*E49*E50)</f>
         <v>1.0965503001810615</v>
       </c>
-      <c r="F51" s="466">
+      <c r="F51" s="368">
         <f t="shared" si="30"/>
         <v>1.3431597188277973</v>
       </c>
-      <c r="G51" s="466" t="str">
+      <c r="G51" s="368" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="H51" s="466" t="str">
+      <c r="H51" s="368" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="I51" s="466" t="str">
+      <c r="I51" s="368" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="J51" s="466" t="str">
+      <c r="J51" s="368" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="K51" s="466" t="str">
+      <c r="K51" s="368" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="L51" s="466" t="str">
+      <c r="L51" s="368" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="M51" s="466" t="str">
+      <c r="M51" s="368" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
@@ -8605,50 +8605,50 @@
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1">
       <c r="A52" s="9"/>
-      <c r="B52" s="467" t="s">
+      <c r="B52" s="369" t="s">
         <v>353</v>
       </c>
-      <c r="C52" s="468">
+      <c r="C52" s="370">
         <f>C35*C51</f>
         <v>-6.7682725609350139E-2</v>
       </c>
-      <c r="D52" s="468">
+      <c r="D52" s="370">
         <f>IF(D35="","",D35*D51)</f>
         <v>1.1104507100057812E-2</v>
       </c>
-      <c r="E52" s="468">
+      <c r="E52" s="370">
         <f t="shared" ref="E52:M52" si="31">IF(E35="","",E35*E51)</f>
         <v>2.4422179945840346E-2</v>
       </c>
-      <c r="F52" s="468" t="str">
+      <c r="F52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="G52" s="468" t="str">
+      <c r="G52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H52" s="468" t="str">
+      <c r="H52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="I52" s="468" t="str">
+      <c r="I52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="J52" s="468" t="str">
+      <c r="J52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="K52" s="468" t="str">
+      <c r="K52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="L52" s="468" t="str">
+      <c r="L52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="M52" s="468" t="str">
+      <c r="M52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
@@ -10120,7 +10120,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:M52">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(D48))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10222,7 +10222,7 @@
       </c>
       <c r="I4" s="89">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>0.65156284795722874</v>
+        <v>0.65545885075616805</v>
       </c>
       <c r="K4" s="73"/>
     </row>
@@ -10265,7 +10265,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>0.13257752110083393</v>
+        <v>0.13337026487820655</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -11160,11 +11160,11 @@
         <v>249</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="438">
+      <c r="D52" s="454">
         <f>D53+D54+D55</f>
         <v>3098</v>
       </c>
-      <c r="E52" s="439"/>
+      <c r="E52" s="455"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -11173,11 +11173,11 @@
         <v>222</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="441">
+      <c r="D53" s="457">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>3098</v>
       </c>
-      <c r="E53" s="371"/>
+      <c r="E53" s="450"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -11193,10 +11193,10 @@
         <v>129</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="448">
+      <c r="D54" s="464">
         <v>0</v>
       </c>
-      <c r="E54" s="364"/>
+      <c r="E54" s="411"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -11207,10 +11207,10 @@
         <v>128</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="448">
+      <c r="D55" s="464">
         <v>0</v>
       </c>
-      <c r="E55" s="364"/>
+      <c r="E55" s="411"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -11225,8 +11225,8 @@
         <v>132</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="440"/>
-      <c r="E57" s="440"/>
+      <c r="D57" s="456"/>
+      <c r="E57" s="456"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -11272,11 +11272,11 @@
         <v>133</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="446">
+      <c r="D60" s="462">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>-299613.02240000013</v>
-      </c>
-      <c r="E60" s="447"/>
+        <v>-208968.02399999998</v>
+      </c>
+      <c r="E60" s="463"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -11293,20 +11293,20 @@
       <c r="B63" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D63" s="444">
+      <c r="D63" s="460">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>0.94321249374668759</v>
       </c>
-      <c r="E63" s="445"/>
+      <c r="E63" s="461"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1">
       <c r="B64" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D64" s="442">
+      <c r="D64" s="458">
         <v>0.2001</v>
       </c>
-      <c r="E64" s="443"/>
+      <c r="E64" s="459"/>
       <c r="F64" s="250" t="s">
         <v>236</v>
       </c>
@@ -11315,10 +11315,10 @@
       <c r="B65" s="271" t="s">
         <v>252</v>
       </c>
-      <c r="D65" s="442">
+      <c r="D65" s="458">
         <v>0.2001</v>
       </c>
-      <c r="E65" s="443"/>
+      <c r="E65" s="459"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12698,17 +12698,17 @@
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="E16:E18">
-    <cfRule type="containsBlanks" dxfId="7" priority="2">
+    <cfRule type="containsBlanks" dxfId="6" priority="2">
       <formula>LEN(TRIM(E16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18 I18">
-    <cfRule type="containsBlanks" dxfId="6" priority="4">
+    <cfRule type="containsBlanks" dxfId="5" priority="4">
       <formula>LEN(TRIM(G18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:H11 H12 G13:H15">
-    <cfRule type="containsBlanks" dxfId="5" priority="10">
+    <cfRule type="containsBlanks" dxfId="4" priority="10">
       <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="11">
@@ -12716,12 +12716,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:J18">
-    <cfRule type="containsBlanks" dxfId="4" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:J15">
-    <cfRule type="containsBlanks" dxfId="3" priority="6">
+    <cfRule type="containsBlanks" dxfId="2" priority="6">
       <formula>LEN(TRIM(I7))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="7">
@@ -13091,7 +13091,7 @@
         <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-8.5443214040588475E-4</v>
       </c>
-      <c r="E17" s="451" t="str">
+      <c r="E17" s="467" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -13114,7 +13114,7 @@
         <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="451"/>
+      <c r="E18" s="467"/>
       <c r="F18" s="145">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>0.25891395459498401</v>
@@ -13136,10 +13136,10 @@
         <f>B3</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="E20" s="452" t="s">
+      <c r="E20" s="468" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="452"/>
+      <c r="F20" s="468"/>
       <c r="G20" s="94"/>
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1">
@@ -13244,10 +13244,10 @@
       <c r="B26" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="C26" s="449" t="s">
+      <c r="C26" s="465" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="450"/>
+      <c r="D26" s="466"/>
       <c r="E26" s="30" t="s">
         <v>210</v>
       </c>
@@ -13263,7 +13263,7 @@
       </c>
       <c r="C27" s="238">
         <f ca="1">MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$8</f>
-        <v>0.17682252138431648</v>
+        <v>0.17747257128176203</v>
       </c>
       <c r="D27" s="117" t="str">
         <f>Dashboard!J4</f>
@@ -13271,11 +13271,11 @@
       </c>
       <c r="E27" s="118">
         <f ca="1">(C27-G16)/C9</f>
-        <v>-1.2137877602589811</v>
+        <v>-1.2040898432539455</v>
       </c>
       <c r="F27" s="155">
         <f ca="1">C27/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.2713821420891141</v>
+        <v>0.27076081294351484</v>
       </c>
       <c r="G27" s="86"/>
       <c r="H27" s="6"/>
@@ -13314,7 +13314,7 @@
       </c>
       <c r="F30" s="155">
         <f ca="1">C30/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.58073151257410416</v>
+        <v>0.57727968398744189</v>
       </c>
       <c r="I30" s="73"/>
     </row>
@@ -13324,7 +13324,7 @@
       </c>
       <c r="C31" s="350">
         <f ca="1">MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E64</f>
-        <v>0.25092859108153331</v>
+        <v>0.25133964261659919</v>
       </c>
       <c r="D31" s="334" t="str">
         <f>D30</f>
@@ -13332,11 +13332,11 @@
       </c>
       <c r="E31" s="118">
         <f ca="1">(C31-G16)/C9</f>
-        <v>-0.10821953185510254</v>
+        <v>-0.10208716618974946</v>
       </c>
       <c r="F31" s="155">
         <f ca="1">C31/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.38511801565764736</v>
+        <v>0.3834560206588743</v>
       </c>
       <c r="I31" s="73"/>
     </row>
@@ -13346,7 +13346,7 @@
       </c>
       <c r="C32" s="350">
         <f ca="1">IF(Asset_Model!D7&gt;C27,Asset_Model!D7,C27)/(1+Dashboard!C16)</f>
-        <v>0.14145801710745318</v>
+        <v>0.14197805702540961</v>
       </c>
       <c r="D32" s="334" t="str">
         <f>D30</f>
@@ -13354,11 +13354,11 @@
       </c>
       <c r="E32" s="118">
         <f ca="1">(C32-G16)/C9</f>
-        <v>-1.7413811477034853</v>
+        <v>-1.7336228140994567</v>
       </c>
       <c r="F32" s="155">
         <f ca="1">C32/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.21710571367129125</v>
+        <v>0.21660865035481186</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -14253,12 +14253,12 @@
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="E4:F12">
-    <cfRule type="containsBlanks" dxfId="2" priority="5">
+    <cfRule type="containsBlanks" dxfId="1" priority="5">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:G23">
-    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
